--- a/proton_qT/expdata/10605.xlsx
+++ b/proton_qT/expdata/10605.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickbarry/work/JAM/fitpack/database/proton_qT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7D4417-B886-BA46-88E3-4F819F519907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8422C81B-2844-7D40-89C9-B038571D94FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{487361BB-D140-9C49-9E52-83089BC7FE17}"/>
   </bookViews>
@@ -20,26 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="17">
-  <si>
-    <t>m_min</t>
-  </si>
-  <si>
-    <t>m_max</t>
-  </si>
   <si>
     <t>pT</t>
   </si>
@@ -84,6 +70,12 @@
   </si>
   <si>
     <t>pp</t>
+  </si>
+  <si>
+    <t>M_min</t>
+  </si>
+  <si>
+    <t>M_max</t>
   </si>
 </sst>
 </file>
@@ -458,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CAB3A1-02DB-DB48-BB5F-44F34CA17139}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,40 +465,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -523,13 +515,13 @@
         <v>0.1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3">
         <v>0.78500000000000003</v>
@@ -542,10 +534,10 @@
         <v>0.11774999999999999</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -562,13 +554,13 @@
         <v>0.3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3">
         <v>0.97299999999999998</v>
@@ -581,10 +573,10 @@
         <v>0.14595</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -601,13 +593,13 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3">
         <v>0.82500000000000007</v>
@@ -620,10 +612,10 @@
         <v>0.12375</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -640,13 +632,13 @@
         <v>0.7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3">
         <v>0.80500000000000016</v>
@@ -659,10 +651,10 @@
         <v>0.12075000000000002</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -679,13 +671,13 @@
         <v>0.9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3">
         <v>0.56900000000000006</v>
@@ -698,10 +690,10 @@
         <v>8.5350000000000009E-2</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -718,13 +710,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3">
         <v>0.53700000000000003</v>
@@ -737,10 +729,10 @@
         <v>8.0549999999999997E-2</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -757,13 +749,13 @@
         <v>1.3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3">
         <v>0.38800000000000007</v>
@@ -776,10 +768,10 @@
         <v>5.8200000000000009E-2</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -796,13 +788,13 @@
         <v>1.5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3">
         <v>0.312</v>
@@ -815,10 +807,10 @@
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -835,13 +827,13 @@
         <v>1.7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3">
         <v>0.22900000000000004</v>
@@ -854,10 +846,10 @@
         <v>3.4350000000000006E-2</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -874,13 +866,13 @@
         <v>1.9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" s="3">
         <v>0.13600000000000001</v>
@@ -893,10 +885,10 @@
         <v>2.0400000000000001E-2</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -913,13 +905,13 @@
         <v>2.1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3">
         <v>0.13700000000000001</v>
@@ -932,10 +924,10 @@
         <v>2.0550000000000002E-2</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -952,13 +944,13 @@
         <v>0.1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3">
         <v>0.33300000000000002</v>
@@ -971,10 +963,10 @@
         <v>4.9950000000000001E-2</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -991,13 +983,13 @@
         <v>0.3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" s="3">
         <v>0.439</v>
@@ -1010,10 +1002,10 @@
         <v>6.5849999999999992E-2</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1030,13 +1022,13 @@
         <v>0.5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15" s="3">
         <v>0.36799999999999999</v>
@@ -1049,10 +1041,10 @@
         <v>5.5199999999999999E-2</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1069,13 +1061,13 @@
         <v>0.7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16" s="3">
         <v>0.37</v>
@@ -1088,10 +1080,10 @@
         <v>5.5500000000000001E-2</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1108,13 +1100,13 @@
         <v>0.9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H17" s="3">
         <v>0.25900000000000001</v>
@@ -1127,10 +1119,10 @@
         <v>3.8850000000000003E-2</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1147,13 +1139,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H18" s="3">
         <v>0.224</v>
@@ -1166,10 +1158,10 @@
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1186,13 +1178,13 @@
         <v>1.3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3">
         <v>0.18000000000000002</v>
@@ -1205,10 +1197,10 @@
         <v>2.7000000000000003E-2</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1225,13 +1217,13 @@
         <v>1.5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H20" s="3">
         <v>0.13100000000000001</v>
@@ -1244,10 +1236,10 @@
         <v>1.9650000000000001E-2</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1264,13 +1256,13 @@
         <v>1.7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H21" s="3">
         <v>8.7500000000000008E-2</v>
@@ -1283,10 +1275,10 @@
         <v>1.3125000000000001E-2</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1303,13 +1295,13 @@
         <v>1.9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H22" s="3">
         <v>7.1300000000000002E-2</v>
@@ -1322,10 +1314,10 @@
         <v>1.0695E-2</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1342,13 +1334,13 @@
         <v>2.1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H23" s="3">
         <v>4.82E-2</v>
@@ -1361,10 +1353,10 @@
         <v>7.2299999999999994E-3</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1381,13 +1373,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H24" s="3">
         <v>2.7200000000000002E-2</v>
@@ -1400,10 +1392,10 @@
         <v>4.0800000000000003E-3</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1420,13 +1412,13 @@
         <v>2.5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H25" s="3">
         <v>2.1700000000000001E-2</v>
@@ -1439,10 +1431,10 @@
         <v>3.2550000000000001E-3</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1459,13 +1451,13 @@
         <v>2.7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H26" s="3">
         <v>1.8400000000000003E-2</v>
@@ -1478,10 +1470,10 @@
         <v>2.7600000000000003E-3</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1498,13 +1490,13 @@
         <v>0.1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H27" s="3">
         <v>7.010000000000001E-2</v>
@@ -1517,10 +1509,10 @@
         <v>1.0515000000000002E-2</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1537,13 +1529,13 @@
         <v>0.3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H28" s="3">
         <v>7.8399999999999997E-2</v>
@@ -1556,10 +1548,10 @@
         <v>1.176E-2</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1576,13 +1568,13 @@
         <v>0.5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H29" s="3">
         <v>7.1199999999999999E-2</v>
@@ -1595,10 +1587,10 @@
         <v>1.068E-2</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1615,13 +1607,13 @@
         <v>0.7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H30" s="3">
         <v>6.2400000000000004E-2</v>
@@ -1634,10 +1626,10 @@
         <v>9.3600000000000003E-3</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1654,13 +1646,13 @@
         <v>0.9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H31" s="3">
         <v>5.0300000000000004E-2</v>
@@ -1673,10 +1665,10 @@
         <v>7.5450000000000005E-3</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1693,13 +1685,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H32" s="3">
         <v>3.9E-2</v>
@@ -1712,10 +1704,10 @@
         <v>5.8500000000000002E-3</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1732,13 +1724,13 @@
         <v>1.3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H33" s="3">
         <v>3.1200000000000002E-2</v>
@@ -1751,10 +1743,10 @@
         <v>4.6800000000000001E-3</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1771,13 +1763,13 @@
         <v>1.5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H34" s="3">
         <v>2.3400000000000001E-2</v>
@@ -1790,10 +1782,10 @@
         <v>3.5100000000000001E-3</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1810,13 +1802,13 @@
         <v>1.7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H35" s="3">
         <v>1.4700000000000001E-2</v>
@@ -1829,10 +1821,10 @@
         <v>2.2049999999999999E-3</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1849,13 +1841,13 @@
         <v>1.9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H36" s="3">
         <v>1.3100000000000001E-2</v>
@@ -1868,10 +1860,10 @@
         <v>1.9650000000000002E-3</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1888,13 +1880,13 @@
         <v>2.1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H37" s="3">
         <v>7.0499999999999998E-3</v>
@@ -1907,10 +1899,10 @@
         <v>1.0574999999999998E-3</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1927,13 +1919,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H38" s="3">
         <v>5.0000000000000001E-3</v>
@@ -1946,10 +1938,10 @@
         <v>7.5000000000000002E-4</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -1966,13 +1958,13 @@
         <v>2.5</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H39" s="3">
         <v>4.5900000000000003E-3</v>
@@ -1985,10 +1977,10 @@
         <v>6.8849999999999998E-4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2005,13 +1997,13 @@
         <v>2.7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H40" s="3">
         <v>3.3E-3</v>
@@ -2024,10 +2016,10 @@
         <v>4.95E-4</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2044,13 +2036,13 @@
         <v>2.9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H41" s="3">
         <v>2.15E-3</v>
@@ -2063,10 +2055,10 @@
         <v>3.2249999999999998E-4</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2083,13 +2075,13 @@
         <v>3.1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H42" s="3">
         <v>1.5900000000000003E-3</v>
@@ -2102,10 +2094,10 @@
         <v>2.3850000000000002E-4</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2122,13 +2114,13 @@
         <v>0.1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H43" s="3">
         <v>5.0799999999999998E-2</v>
@@ -2141,10 +2133,10 @@
         <v>7.6199999999999992E-3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2161,13 +2153,13 @@
         <v>0.3</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H44" s="3">
         <v>6.7900000000000002E-2</v>
@@ -2180,10 +2172,10 @@
         <v>1.0185E-2</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2200,13 +2192,13 @@
         <v>0.5</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H45" s="3">
         <v>6.4600000000000005E-2</v>
@@ -2219,10 +2211,10 @@
         <v>9.6900000000000007E-3</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2239,13 +2231,13 @@
         <v>0.7</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H46" s="3">
         <v>4.9200000000000001E-2</v>
@@ -2258,10 +2250,10 @@
         <v>7.3799999999999994E-3</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2278,13 +2270,13 @@
         <v>0.9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H47" s="3">
         <v>4.1700000000000001E-2</v>
@@ -2297,10 +2289,10 @@
         <v>6.2550000000000001E-3</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2317,13 +2309,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H48" s="3">
         <v>3.2300000000000002E-2</v>
@@ -2336,10 +2328,10 @@
         <v>4.8450000000000003E-3</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2356,13 +2348,13 @@
         <v>1.3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H49" s="3">
         <v>2.4700000000000003E-2</v>
@@ -2375,10 +2367,10 @@
         <v>3.7050000000000004E-3</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2395,13 +2387,13 @@
         <v>1.5</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H50" s="3">
         <v>1.9400000000000001E-2</v>
@@ -2414,10 +2406,10 @@
         <v>2.9099999999999998E-3</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2434,13 +2426,13 @@
         <v>1.7</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H51" s="3">
         <v>1.37E-2</v>
@@ -2453,10 +2445,10 @@
         <v>2.055E-3</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2473,13 +2465,13 @@
         <v>1.9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H52" s="3">
         <v>8.660000000000001E-3</v>
@@ -2492,10 +2484,10 @@
         <v>1.299E-3</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2512,13 +2504,13 @@
         <v>2.1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H53" s="3">
         <v>6.7900000000000009E-3</v>
@@ -2531,10 +2523,10 @@
         <v>1.0185000000000001E-3</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2551,13 +2543,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H54" s="3">
         <v>4.4000000000000003E-3</v>
@@ -2570,10 +2562,10 @@
         <v>6.6E-4</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2590,13 +2582,13 @@
         <v>2.5</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H55" s="3">
         <v>3.3400000000000001E-3</v>
@@ -2609,10 +2601,10 @@
         <v>5.0100000000000003E-4</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2629,13 +2621,13 @@
         <v>2.7</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H56" s="3">
         <v>2.6200000000000004E-3</v>
@@ -2648,10 +2640,10 @@
         <v>3.9300000000000007E-4</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2668,13 +2660,13 @@
         <v>2.9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H57" s="3">
         <v>1.65E-3</v>
@@ -2687,10 +2679,10 @@
         <v>2.475E-4</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2707,13 +2699,13 @@
         <v>3.1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H58" s="3">
         <v>1.2000000000000001E-3</v>
@@ -2726,10 +2718,10 @@
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2746,13 +2738,13 @@
         <v>3.3</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H59" s="3">
         <v>1.1100000000000001E-3</v>
@@ -2765,10 +2757,10 @@
         <v>1.6650000000000001E-4</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2785,13 +2777,13 @@
         <v>3.5</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H60" s="3">
         <v>6.5400000000000007E-4</v>
@@ -2804,10 +2796,10 @@
         <v>9.8100000000000013E-5</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2824,13 +2816,13 @@
         <v>0.1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H61" s="3">
         <v>2.4000000000000004E-2</v>
@@ -2843,10 +2835,10 @@
         <v>3.6000000000000003E-3</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2863,13 +2855,13 @@
         <v>0.3</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H62" s="3">
         <v>2.06E-2</v>
@@ -2882,10 +2874,10 @@
         <v>3.0899999999999999E-3</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2902,13 +2894,13 @@
         <v>0.5</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H63" s="3">
         <v>1.8800000000000001E-2</v>
@@ -2921,10 +2913,10 @@
         <v>2.82E-3</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2941,13 +2933,13 @@
         <v>0.7</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H64" s="3">
         <v>1.7100000000000001E-2</v>
@@ -2960,10 +2952,10 @@
         <v>2.565E-3</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -2980,13 +2972,13 @@
         <v>0.9</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H65" s="3">
         <v>9.7300000000000008E-3</v>
@@ -2999,10 +2991,10 @@
         <v>1.4595000000000001E-3</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -3019,13 +3011,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H66" s="3">
         <v>1.0699999999999999E-2</v>
@@ -3038,10 +3030,10 @@
         <v>1.6049999999999999E-3</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -3058,13 +3050,13 @@
         <v>1.3</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H67" s="3">
         <v>7.9100000000000004E-3</v>
@@ -3077,10 +3069,10 @@
         <v>1.1865000000000001E-3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -3097,13 +3089,13 @@
         <v>1.5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H68" s="3">
         <v>6.0500000000000007E-3</v>
@@ -3116,10 +3108,10 @@
         <v>9.075000000000001E-4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -3136,13 +3128,13 @@
         <v>1.7</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H69" s="3">
         <v>3.5000000000000001E-3</v>
@@ -3155,10 +3147,10 @@
         <v>5.2499999999999997E-4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -3175,13 +3167,13 @@
         <v>1.9</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H70" s="3">
         <v>1.9400000000000001E-3</v>
@@ -3194,10 +3186,10 @@
         <v>2.9100000000000003E-4</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -3214,13 +3206,13 @@
         <v>2.1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H71" s="3">
         <v>2E-3</v>
@@ -3233,10 +3225,10 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -3253,13 +3245,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H72" s="3">
         <v>1.3600000000000001E-3</v>
@@ -3272,10 +3264,10 @@
         <v>2.04E-4</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -3292,13 +3284,13 @@
         <v>2.5</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H73" s="3">
         <v>1.3600000000000001E-3</v>
@@ -3311,10 +3303,10 @@
         <v>2.04E-4</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -3331,13 +3323,13 @@
         <v>2.7</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H74" s="3">
         <v>6.0000000000000006E-4</v>
@@ -3350,10 +3342,10 @@
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -3370,13 +3362,13 @@
         <v>2.9</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H75" s="3">
         <v>4.35E-4</v>
@@ -3389,10 +3381,10 @@
         <v>6.525E-5</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/proton_qT/expdata/10605.xlsx
+++ b/proton_qT/expdata/10605.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8422C81B-2844-7D40-89C9-B038571D94FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D79D26B-1B87-644E-901B-56DDEFA2285B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{487361BB-D140-9C49-9E52-83089BC7FE17}"/>
+    <workbookView xWindow="5380" yWindow="5940" windowWidth="28040" windowHeight="16460" xr2:uid="{487361BB-D140-9C49-9E52-83089BC7FE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="18">
   <si>
     <t>pT</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>M_max</t>
+  </si>
+  <si>
+    <t>xF</t>
   </si>
 </sst>
 </file>
@@ -448,22 +451,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CAB3A1-02DB-DB48-BB5F-44F34CA17139}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -474,34 +475,37 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>800</v>
       </c>
@@ -514,33 +518,36 @@
       <c r="D2" s="1">
         <v>0.1</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
+      <c r="E2" s="1">
+        <v>0.1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3">
         <v>0.78500000000000003</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>0.115</v>
       </c>
-      <c r="J2" s="3">
-        <f>0.15*H2</f>
+      <c r="K2" s="3">
+        <f>0.15*I2</f>
         <v>0.11774999999999999</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>800</v>
       </c>
@@ -551,35 +558,38 @@
         <v>8</v>
       </c>
       <c r="D3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3">
         <v>0.97299999999999998</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>8.6000000000000007E-2</v>
       </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J66" si="0">0.15*H3</f>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K66" si="0">0.15*I3</f>
         <v>0.14595</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>800</v>
       </c>
@@ -590,35 +600,38 @@
         <v>8</v>
       </c>
       <c r="D4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.5</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3">
         <v>0.82500000000000007</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>6.2E-2</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <f t="shared" si="0"/>
         <v>0.12375</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>800</v>
       </c>
@@ -629,35 +642,38 @@
         <v>8</v>
       </c>
       <c r="D5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.7</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3">
         <v>0.80500000000000016</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <f t="shared" si="0"/>
         <v>0.12075000000000002</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>800</v>
       </c>
@@ -668,35 +684,38 @@
         <v>8</v>
       </c>
       <c r="D6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.9</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3">
         <v>0.56900000000000006</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <f t="shared" si="0"/>
         <v>8.5350000000000009E-2</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>800</v>
       </c>
@@ -707,35 +726,38 @@
         <v>8</v>
       </c>
       <c r="D7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3">
         <v>0.53700000000000003</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <f t="shared" si="0"/>
         <v>8.0549999999999997E-2</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>800</v>
       </c>
@@ -746,35 +768,38 @@
         <v>8</v>
       </c>
       <c r="D8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="1">
         <v>1.3</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3">
         <v>0.38800000000000007</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3.9E-2</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <f t="shared" si="0"/>
         <v>5.8200000000000009E-2</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>800</v>
       </c>
@@ -785,35 +810,38 @@
         <v>8</v>
       </c>
       <c r="D9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="1">
         <v>1.5</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3">
         <v>0.312</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <f t="shared" si="0"/>
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>800</v>
       </c>
@@ -824,35 +852,38 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="1">
         <v>1.7</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3">
         <v>0.22900000000000004</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3.7000000000000005E-2</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <f t="shared" si="0"/>
         <v>3.4350000000000006E-2</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>800</v>
       </c>
@@ -863,35 +894,38 @@
         <v>8</v>
       </c>
       <c r="D11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="1">
         <v>1.9</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="3">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3">
         <v>0.13600000000000001</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <f t="shared" si="0"/>
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>800</v>
       </c>
@@ -902,35 +936,38 @@
         <v>8</v>
       </c>
       <c r="D12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="1">
         <v>2.1</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="3">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3">
         <v>0.13700000000000001</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4.3000000000000003E-2</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <f t="shared" si="0"/>
         <v>2.0550000000000002E-2</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>800</v>
       </c>
@@ -943,33 +980,36 @@
       <c r="D13" s="1">
         <v>0.1</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>6</v>
+      <c r="E13" s="1">
+        <v>0.1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="3">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3">
         <v>0.33300000000000002</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <f t="shared" si="0"/>
         <v>4.9950000000000001E-2</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>800</v>
       </c>
@@ -980,35 +1020,38 @@
         <v>9</v>
       </c>
       <c r="D14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="1">
         <v>0.3</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>0.439</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>0.02</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <f t="shared" si="0"/>
         <v>6.5849999999999992E-2</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>800</v>
       </c>
@@ -1019,35 +1062,38 @@
         <v>9</v>
       </c>
       <c r="D15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="1">
         <v>0.5</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3">
         <v>0.36799999999999999</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <f t="shared" si="0"/>
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>800</v>
       </c>
@@ -1058,35 +1104,38 @@
         <v>9</v>
       </c>
       <c r="D16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="1">
         <v>0.7</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="3">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3">
         <v>0.37</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <f t="shared" si="0"/>
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>800</v>
       </c>
@@ -1097,35 +1146,38 @@
         <v>9</v>
       </c>
       <c r="D17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="1">
         <v>0.9</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="3">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3">
         <v>0.25900000000000001</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>0.01</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <f t="shared" si="0"/>
         <v>3.8850000000000003E-2</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>800</v>
       </c>
@@ -1136,35 +1188,38 @@
         <v>9</v>
       </c>
       <c r="D18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="3">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="3">
         <v>0.224</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <f t="shared" si="0"/>
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>800</v>
       </c>
@@ -1175,35 +1230,38 @@
         <v>9</v>
       </c>
       <c r="D19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="1">
         <v>1.3</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="3">
+        <v>8</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="3">
         <v>0.18000000000000002</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <f t="shared" si="0"/>
         <v>2.7000000000000003E-2</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>800</v>
       </c>
@@ -1214,35 +1272,38 @@
         <v>9</v>
       </c>
       <c r="D20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="1">
         <v>1.5</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="3">
+        <v>8</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="3">
         <v>0.13100000000000001</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <f t="shared" si="0"/>
         <v>1.9650000000000001E-2</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>800</v>
       </c>
@@ -1253,35 +1314,38 @@
         <v>9</v>
       </c>
       <c r="D21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="1">
         <v>1.7</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="3">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="3">
         <v>8.7500000000000008E-2</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6.8000000000000005E-3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <f t="shared" si="0"/>
         <v>1.3125000000000001E-2</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L21" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>800</v>
       </c>
@@ -1292,35 +1356,38 @@
         <v>9</v>
       </c>
       <c r="D22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="1">
         <v>1.9</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="3">
+        <v>8</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3">
         <v>7.1300000000000002E-2</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <f t="shared" si="0"/>
         <v>1.0695E-2</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L22" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>800</v>
       </c>
@@ -1331,35 +1398,38 @@
         <v>9</v>
       </c>
       <c r="D23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="1">
         <v>2.1</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="3">
+        <v>8</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="3">
         <v>4.82E-2</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6.3E-3</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <f t="shared" si="0"/>
         <v>7.2299999999999994E-3</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L23" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>800</v>
       </c>
@@ -1370,35 +1440,38 @@
         <v>9</v>
       </c>
       <c r="D24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="3">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="3">
         <v>2.7200000000000002E-2</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <f t="shared" si="0"/>
         <v>4.0800000000000003E-3</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L24" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>800</v>
       </c>
@@ -1409,35 +1482,38 @@
         <v>9</v>
       </c>
       <c r="D25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="1">
         <v>2.5</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="3">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="3">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <f t="shared" si="0"/>
         <v>3.2550000000000001E-3</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L25" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>800</v>
       </c>
@@ -1448,35 +1524,38 @@
         <v>9</v>
       </c>
       <c r="D26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="1">
         <v>2.7</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="3">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="3">
         <v>1.8400000000000003E-2</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <f t="shared" si="0"/>
         <v>2.7600000000000003E-3</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L26" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>800</v>
       </c>
@@ -1489,33 +1568,36 @@
       <c r="D27" s="1">
         <v>0.1</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>6</v>
+      <c r="E27" s="1">
+        <v>0.1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="3">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="3">
         <v>7.010000000000001E-2</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <f t="shared" si="0"/>
         <v>1.0515000000000002E-2</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L27" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>800</v>
       </c>
@@ -1526,35 +1608,38 @@
         <v>11.5</v>
       </c>
       <c r="D28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E28" s="1">
         <v>0.3</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="3">
+        <v>8</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="3">
         <v>7.8399999999999997E-2</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="3">
         <v>5.5000000000000005E-3</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28" s="3">
         <f t="shared" si="0"/>
         <v>1.176E-2</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L28" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>800</v>
       </c>
@@ -1565,35 +1650,38 @@
         <v>11.5</v>
       </c>
       <c r="D29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="1">
         <v>0.5</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <f t="shared" si="0"/>
         <v>1.068E-2</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L29" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>800</v>
       </c>
@@ -1604,35 +1692,38 @@
         <v>11.5</v>
       </c>
       <c r="D30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="1">
         <v>0.7</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="3">
+        <v>8</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="3">
         <v>6.2400000000000004E-2</v>
       </c>
-      <c r="I30" s="3">
+      <c r="J30" s="3">
         <v>3.3E-3</v>
       </c>
-      <c r="J30" s="3">
+      <c r="K30" s="3">
         <f t="shared" si="0"/>
         <v>9.3600000000000003E-3</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L30" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>800</v>
       </c>
@@ -1643,35 +1734,38 @@
         <v>11.5</v>
       </c>
       <c r="D31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="1">
         <v>0.9</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="3">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="3">
         <v>5.0300000000000004E-2</v>
       </c>
-      <c r="I31" s="3">
+      <c r="J31" s="3">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="3">
         <f t="shared" si="0"/>
         <v>7.5450000000000005E-3</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L31" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>800</v>
       </c>
@@ -1682,35 +1776,38 @@
         <v>11.5</v>
       </c>
       <c r="D32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E32" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="3">
+        <v>8</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="3">
         <v>3.9E-2</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <f t="shared" si="0"/>
         <v>5.8500000000000002E-3</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L32" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>800</v>
       </c>
@@ -1721,35 +1818,38 @@
         <v>11.5</v>
       </c>
       <c r="D33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="1">
         <v>1.3</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="3">
+        <v>8</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="3">
         <v>3.1200000000000002E-2</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1.8000000000000002E-3</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <f t="shared" si="0"/>
         <v>4.6800000000000001E-3</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L33" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>800</v>
       </c>
@@ -1760,35 +1860,38 @@
         <v>11.5</v>
       </c>
       <c r="D34" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E34" s="1">
         <v>1.5</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="3">
+        <v>8</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="3">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="I34" s="3">
+      <c r="J34" s="3">
         <v>1.5000000000000002E-3</v>
       </c>
-      <c r="J34" s="3">
+      <c r="K34" s="3">
         <f t="shared" si="0"/>
         <v>3.5100000000000001E-3</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L34" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>800</v>
       </c>
@@ -1799,35 +1902,38 @@
         <v>11.5</v>
       </c>
       <c r="D35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E35" s="1">
         <v>1.7</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="3">
+        <v>8</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="3">
         <v>1.4700000000000001E-2</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <f t="shared" si="0"/>
         <v>2.2049999999999999E-3</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L35" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>800</v>
       </c>
@@ -1838,35 +1944,38 @@
         <v>11.5</v>
       </c>
       <c r="D36" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E36" s="1">
         <v>1.9</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="3">
+        <v>8</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="3">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="I36" s="3">
+      <c r="J36" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="J36" s="3">
+      <c r="K36" s="3">
         <f t="shared" si="0"/>
         <v>1.9650000000000002E-3</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L36" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>800</v>
       </c>
@@ -1877,35 +1986,38 @@
         <v>11.5</v>
       </c>
       <c r="D37" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E37" s="1">
         <v>2.1</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="3">
+        <v>8</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="3">
         <v>7.0499999999999998E-3</v>
       </c>
-      <c r="I37" s="3">
+      <c r="J37" s="3">
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="J37" s="3">
+      <c r="K37" s="3">
         <f t="shared" si="0"/>
         <v>1.0574999999999998E-3</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L37" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>800</v>
       </c>
@@ -1916,35 +2028,38 @@
         <v>11.5</v>
       </c>
       <c r="D38" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E38" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="3">
+        <v>8</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I38" s="3">
+      <c r="J38" s="3">
         <v>6.1000000000000008E-4</v>
       </c>
-      <c r="J38" s="3">
+      <c r="K38" s="3">
         <f t="shared" si="0"/>
         <v>7.5000000000000002E-4</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L38" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>800</v>
       </c>
@@ -1955,35 +2070,38 @@
         <v>11.5</v>
       </c>
       <c r="D39" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E39" s="1">
         <v>2.5</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="3">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="3">
         <v>4.5900000000000003E-3</v>
       </c>
-      <c r="I39" s="3">
+      <c r="J39" s="3">
         <v>6.2E-4</v>
       </c>
-      <c r="J39" s="3">
+      <c r="K39" s="3">
         <f t="shared" si="0"/>
         <v>6.8849999999999998E-4</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L39" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>800</v>
       </c>
@@ -1994,35 +2112,38 @@
         <v>11.5</v>
       </c>
       <c r="D40" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E40" s="1">
         <v>2.7</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="3">
+        <v>8</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="3">
         <v>3.3E-3</v>
       </c>
-      <c r="I40" s="3">
+      <c r="J40" s="3">
         <v>5.9000000000000003E-4</v>
       </c>
-      <c r="J40" s="3">
+      <c r="K40" s="3">
         <f t="shared" si="0"/>
         <v>4.95E-4</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L40" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>800</v>
       </c>
@@ -2033,35 +2154,38 @@
         <v>11.5</v>
       </c>
       <c r="D41" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E41" s="1">
         <v>2.9</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="3">
+        <v>8</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="3">
         <v>2.15E-3</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <f t="shared" si="0"/>
         <v>3.2249999999999998E-4</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L41" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>800</v>
       </c>
@@ -2072,35 +2196,38 @@
         <v>11.5</v>
       </c>
       <c r="D42" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E42" s="1">
         <v>3.1</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="3">
+        <v>8</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="3">
         <v>1.5900000000000003E-3</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>5.2000000000000006E-4</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <f t="shared" si="0"/>
         <v>2.3850000000000002E-4</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L42" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>800</v>
       </c>
@@ -2113,33 +2240,36 @@
       <c r="D43" s="1">
         <v>0.1</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>6</v>
+      <c r="E43" s="1">
+        <v>0.1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="3">
+        <v>8</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="3">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6.3999999999999994E-3</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <f t="shared" si="0"/>
         <v>7.6199999999999992E-3</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L43" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>800</v>
       </c>
@@ -2150,35 +2280,38 @@
         <v>13.5</v>
       </c>
       <c r="D44" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E44" s="1">
         <v>0.3</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="3">
+        <v>8</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="3">
         <v>6.7900000000000002E-2</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4.8000000000000004E-3</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <f t="shared" si="0"/>
         <v>1.0185E-2</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L44" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>800</v>
       </c>
@@ -2189,35 +2322,38 @@
         <v>13.5</v>
       </c>
       <c r="D45" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="1">
         <v>0.5</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="3">
+        <v>8</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="3">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3.9000000000000003E-3</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <f t="shared" si="0"/>
         <v>9.6900000000000007E-3</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L45" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>800</v>
       </c>
@@ -2228,35 +2364,38 @@
         <v>13.5</v>
       </c>
       <c r="D46" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E46" s="1">
         <v>0.7</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="3">
+        <v>8</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="3">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <f t="shared" si="0"/>
         <v>7.3799999999999994E-3</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L46" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>800</v>
       </c>
@@ -2267,35 +2406,38 @@
         <v>13.5</v>
       </c>
       <c r="D47" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E47" s="1">
         <v>0.9</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="3">
+        <v>8</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <f t="shared" si="0"/>
         <v>6.2550000000000001E-3</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L47" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>800</v>
       </c>
@@ -2306,35 +2448,38 @@
         <v>13.5</v>
       </c>
       <c r="D48" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E48" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F48" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="3">
+        <v>8</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="3">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1.8000000000000002E-3</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <f t="shared" si="0"/>
         <v>4.8450000000000003E-3</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L48" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>800</v>
       </c>
@@ -2345,35 +2490,38 @@
         <v>13.5</v>
       </c>
       <c r="D49" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E49" s="1">
         <v>1.3</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F49" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="3">
+        <v>8</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="3">
         <v>2.4700000000000003E-2</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1.5000000000000002E-3</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <f t="shared" si="0"/>
         <v>3.7050000000000004E-3</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L49" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>800</v>
       </c>
@@ -2384,35 +2532,38 @@
         <v>13.5</v>
       </c>
       <c r="D50" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E50" s="1">
         <v>1.5</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="3">
+        <v>8</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="3">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="I50" s="3">
+      <c r="J50" s="3">
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="J50" s="3">
+      <c r="K50" s="3">
         <f t="shared" si="0"/>
         <v>2.9099999999999998E-3</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L50" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>800</v>
       </c>
@@ -2423,35 +2574,38 @@
         <v>13.5</v>
       </c>
       <c r="D51" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E51" s="1">
         <v>1.7</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F51" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="3">
+        <v>8</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="3">
         <v>1.37E-2</v>
       </c>
-      <c r="I51" s="3">
+      <c r="J51" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J51" s="3">
+      <c r="K51" s="3">
         <f t="shared" si="0"/>
         <v>2.055E-3</v>
       </c>
-      <c r="K51" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L51" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>800</v>
       </c>
@@ -2462,35 +2616,38 @@
         <v>13.5</v>
       </c>
       <c r="D52" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E52" s="1">
         <v>1.9</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="3">
+        <v>8</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="3">
         <v>8.660000000000001E-3</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7.3000000000000007E-4</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <f t="shared" si="0"/>
         <v>1.299E-3</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L52" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>800</v>
       </c>
@@ -2501,35 +2658,38 @@
         <v>13.5</v>
       </c>
       <c r="D53" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E53" s="1">
         <v>2.1</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="3">
+        <v>8</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="3">
         <v>6.7900000000000009E-3</v>
       </c>
-      <c r="I53" s="3">
+      <c r="J53" s="3">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="J53" s="3">
+      <c r="K53" s="3">
         <f t="shared" si="0"/>
         <v>1.0185000000000001E-3</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L53" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>800</v>
       </c>
@@ -2540,35 +2700,38 @@
         <v>13.5</v>
       </c>
       <c r="D54" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E54" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F54" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" s="3">
+        <v>8</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="3">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5.5000000000000003E-4</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <f t="shared" si="0"/>
         <v>6.6E-4</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L54" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>800</v>
       </c>
@@ -2579,35 +2742,38 @@
         <v>13.5</v>
       </c>
       <c r="D55" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E55" s="1">
         <v>2.5</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="3">
+        <v>8</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="3">
         <v>3.3400000000000001E-3</v>
       </c>
-      <c r="I55" s="3">
+      <c r="J55" s="3">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="J55" s="3">
+      <c r="K55" s="3">
         <f t="shared" si="0"/>
         <v>5.0100000000000003E-4</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L55" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>800</v>
       </c>
@@ -2618,35 +2784,38 @@
         <v>13.5</v>
       </c>
       <c r="D56" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E56" s="1">
         <v>2.7</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F56" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="3">
+        <v>8</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="3">
         <v>2.6200000000000004E-3</v>
       </c>
-      <c r="I56" s="3">
+      <c r="J56" s="3">
         <v>4.2000000000000007E-4</v>
       </c>
-      <c r="J56" s="3">
+      <c r="K56" s="3">
         <f t="shared" si="0"/>
         <v>3.9300000000000007E-4</v>
       </c>
-      <c r="K56" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L56" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>800</v>
       </c>
@@ -2657,35 +2826,38 @@
         <v>13.5</v>
       </c>
       <c r="D57" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E57" s="1">
         <v>2.9</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F57" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="3">
+        <v>8</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="3">
         <v>1.65E-3</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3.3E-4</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <f t="shared" si="0"/>
         <v>2.475E-4</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L57" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>800</v>
       </c>
@@ -2696,35 +2868,38 @@
         <v>13.5</v>
       </c>
       <c r="D58" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E58" s="1">
         <v>3.1</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F58" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="3">
+        <v>8</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="3">
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2.8000000000000003E-4</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <f t="shared" si="0"/>
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L58" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>800</v>
       </c>
@@ -2735,35 +2910,38 @@
         <v>13.5</v>
       </c>
       <c r="D59" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E59" s="1">
         <v>3.3</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F59" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="3">
+        <v>8</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="3">
         <v>1.1100000000000001E-3</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <f t="shared" si="0"/>
         <v>1.6650000000000001E-4</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L59" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>800</v>
       </c>
@@ -2774,35 +2952,38 @@
         <v>13.5</v>
       </c>
       <c r="D60" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E60" s="1">
         <v>3.5</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F60" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" s="3">
+        <v>8</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="3">
         <v>6.5400000000000007E-4</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2.4300000000000002E-4</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <f t="shared" si="0"/>
         <v>9.8100000000000013E-5</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L60" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>800</v>
       </c>
@@ -2815,33 +2996,36 @@
       <c r="D61" s="1">
         <v>0.1</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>6</v>
+      <c r="E61" s="1">
+        <v>0.1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H61" s="3">
+        <v>8</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="3">
         <v>2.4000000000000004E-2</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5.5000000000000005E-3</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <f t="shared" si="0"/>
         <v>3.6000000000000003E-3</v>
       </c>
-      <c r="K61" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L61" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>800</v>
       </c>
@@ -2852,35 +3036,38 @@
         <v>18</v>
       </c>
       <c r="D62" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E62" s="1">
         <v>0.3</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F62" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="3">
+        <v>8</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="3">
         <v>2.06E-2</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <f t="shared" si="0"/>
         <v>3.0899999999999999E-3</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L62" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>800</v>
       </c>
@@ -2891,35 +3078,38 @@
         <v>18</v>
       </c>
       <c r="D63" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E63" s="1">
         <v>0.5</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F63" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H63" s="3">
+        <v>8</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="3">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="I63" s="3">
+      <c r="J63" s="3">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="J63" s="3">
+      <c r="K63" s="3">
         <f t="shared" si="0"/>
         <v>2.82E-3</v>
       </c>
-      <c r="K63" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L63" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>800</v>
       </c>
@@ -2930,35 +3120,38 @@
         <v>18</v>
       </c>
       <c r="D64" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E64" s="1">
         <v>0.7</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F64" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="3">
+        <v>8</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="3">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="I64" s="3">
+      <c r="J64" s="3">
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="J64" s="3">
+      <c r="K64" s="3">
         <f t="shared" si="0"/>
         <v>2.565E-3</v>
       </c>
-      <c r="K64" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L64" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>800</v>
       </c>
@@ -2969,35 +3162,38 @@
         <v>18</v>
       </c>
       <c r="D65" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E65" s="1">
         <v>0.9</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F65" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H65" s="3">
+        <v>8</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="3">
         <v>9.7300000000000008E-3</v>
       </c>
-      <c r="I65" s="3">
+      <c r="J65" s="3">
         <v>1.16E-3</v>
       </c>
-      <c r="J65" s="3">
+      <c r="K65" s="3">
         <f t="shared" si="0"/>
         <v>1.4595000000000001E-3</v>
       </c>
-      <c r="K65" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L65" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>800</v>
       </c>
@@ -3008,35 +3204,38 @@
         <v>18</v>
       </c>
       <c r="D66" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E66" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" s="3">
+        <v>8</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="3">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <f t="shared" si="0"/>
         <v>1.6049999999999999E-3</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L66" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>800</v>
       </c>
@@ -3047,35 +3246,38 @@
         <v>18</v>
       </c>
       <c r="D67" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E67" s="1">
         <v>1.3</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F67" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H67" s="3">
+        <v>8</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="3">
         <v>7.9100000000000004E-3</v>
       </c>
-      <c r="I67" s="3">
+      <c r="J67" s="3">
         <v>8.8000000000000003E-4</v>
       </c>
-      <c r="J67" s="3">
-        <f t="shared" ref="J67:J75" si="1">0.15*H67</f>
+      <c r="K67" s="3">
+        <f t="shared" ref="K67:K75" si="1">0.15*I67</f>
         <v>1.1865000000000001E-3</v>
       </c>
-      <c r="K67" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L67" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>800</v>
       </c>
@@ -3086,35 +3288,38 @@
         <v>18</v>
       </c>
       <c r="D68" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E68" s="1">
         <v>1.5</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F68" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="3">
+        <v>8</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="3">
         <v>6.0500000000000007E-3</v>
       </c>
-      <c r="I68" s="3">
+      <c r="J68" s="3">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="J68" s="3">
+      <c r="K68" s="3">
         <f t="shared" si="1"/>
         <v>9.075000000000001E-4</v>
       </c>
-      <c r="K68" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L68" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>800</v>
       </c>
@@ -3125,35 +3330,38 @@
         <v>18</v>
       </c>
       <c r="D69" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E69" s="1">
         <v>1.7</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F69" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69" s="3">
+        <v>8</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="3">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="I69" s="3">
+      <c r="J69" s="3">
         <v>5.1000000000000004E-4</v>
       </c>
-      <c r="J69" s="3">
+      <c r="K69" s="3">
         <f t="shared" si="1"/>
         <v>5.2499999999999997E-4</v>
       </c>
-      <c r="K69" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L69" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>800</v>
       </c>
@@ -3164,35 +3372,38 @@
         <v>18</v>
       </c>
       <c r="D70" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E70" s="1">
         <v>1.9</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F70" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" s="3">
+        <v>8</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="3">
         <v>1.9400000000000001E-3</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <f t="shared" si="1"/>
         <v>2.9100000000000003E-4</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L70" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>800</v>
       </c>
@@ -3203,35 +3414,38 @@
         <v>18</v>
       </c>
       <c r="D71" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E71" s="1">
         <v>2.1</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="3">
+        <v>8</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="3">
         <v>2E-3</v>
       </c>
-      <c r="I71" s="3">
+      <c r="J71" s="3">
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="J71" s="3">
+      <c r="K71" s="3">
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="K71" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L71" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>800</v>
       </c>
@@ -3242,35 +3456,38 @@
         <v>18</v>
       </c>
       <c r="D72" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E72" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="3">
+        <v>8</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="3">
         <v>1.3600000000000001E-3</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2.9E-4</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <f t="shared" si="1"/>
         <v>2.04E-4</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L72" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>800</v>
       </c>
@@ -3281,35 +3498,38 @@
         <v>18</v>
       </c>
       <c r="D73" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E73" s="1">
         <v>2.5</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F73" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H73" s="3">
+        <v>8</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="3">
         <v>1.3600000000000001E-3</v>
       </c>
-      <c r="I73" s="3">
+      <c r="J73" s="3">
         <v>2.9E-4</v>
       </c>
-      <c r="J73" s="3">
+      <c r="K73" s="3">
         <f t="shared" si="1"/>
         <v>2.04E-4</v>
       </c>
-      <c r="K73" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L73" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>800</v>
       </c>
@@ -3320,35 +3540,38 @@
         <v>18</v>
       </c>
       <c r="D74" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E74" s="1">
         <v>2.7</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F74" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H74" s="3">
+        <v>8</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="3">
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="I74" s="3">
+      <c r="J74" s="3">
         <v>1.9099999999999998E-4</v>
       </c>
-      <c r="J74" s="3">
+      <c r="K74" s="3">
         <f t="shared" si="1"/>
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="K74" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L74" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>800</v>
       </c>
@@ -3359,31 +3582,34 @@
         <v>18</v>
       </c>
       <c r="D75" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E75" s="1">
         <v>2.9</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F75" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H75" s="3">
+        <v>8</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" s="3">
         <v>4.35E-4</v>
       </c>
-      <c r="I75" s="3">
+      <c r="J75" s="3">
         <v>1.6600000000000002E-4</v>
       </c>
-      <c r="J75" s="3">
+      <c r="K75" s="3">
         <f t="shared" si="1"/>
         <v>6.525E-5</v>
       </c>
-      <c r="K75" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M75" s="3" t="s">
         <v>14</v>
       </c>
     </row>

--- a/proton_qT/expdata/10605.xlsx
+++ b/proton_qT/expdata/10605.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D79D26B-1B87-644E-901B-56DDEFA2285B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4586435C-C640-4244-A8BD-D9168923F6F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="5940" windowWidth="28040" windowHeight="16460" xr2:uid="{487361BB-D140-9C49-9E52-83089BC7FE17}"/>
+    <workbookView xWindow="1140" yWindow="3700" windowWidth="28040" windowHeight="16460" xr2:uid="{487361BB-D140-9C49-9E52-83089BC7FE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="19">
   <si>
     <t>pT</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>xF</t>
+  </si>
+  <si>
+    <t>syst_c</t>
   </si>
 </sst>
 </file>
@@ -451,9 +454,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CAB3A1-02DB-DB48-BB5F-44F34CA17139}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -464,7 +469,7 @@
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -496,16 +501,19 @@
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>800</v>
       </c>
@@ -537,17 +545,21 @@
         <v>0.115</v>
       </c>
       <c r="K2" s="3">
+        <f>0.1*I2</f>
+        <v>7.8500000000000014E-2</v>
+      </c>
+      <c r="L2" s="3">
         <f>0.15*I2</f>
         <v>0.11774999999999999</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>800</v>
       </c>
@@ -579,17 +591,21 @@
         <v>8.6000000000000007E-2</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K66" si="0">0.15*I3</f>
+        <f t="shared" ref="K3:K66" si="0">0.1*I3</f>
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L66" si="1">0.15*I3</f>
         <v>0.14595</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>800</v>
       </c>
@@ -622,16 +638,20 @@
       </c>
       <c r="K4" s="3">
         <f t="shared" si="0"/>
+        <v>8.2500000000000018E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="1"/>
         <v>0.12375</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>800</v>
       </c>
@@ -664,16 +684,20 @@
       </c>
       <c r="K5" s="3">
         <f t="shared" si="0"/>
+        <v>8.0500000000000016E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="1"/>
         <v>0.12075000000000002</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>800</v>
       </c>
@@ -706,16 +730,20 @@
       </c>
       <c r="K6" s="3">
         <f t="shared" si="0"/>
+        <v>5.6900000000000006E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="1"/>
         <v>8.5350000000000009E-2</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>800</v>
       </c>
@@ -748,16 +776,20 @@
       </c>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
+        <v>5.3700000000000005E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="1"/>
         <v>8.0549999999999997E-2</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>800</v>
       </c>
@@ -790,16 +822,20 @@
       </c>
       <c r="K8" s="3">
         <f t="shared" si="0"/>
+        <v>3.8800000000000008E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="1"/>
         <v>5.8200000000000009E-2</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>800</v>
       </c>
@@ -832,16 +868,20 @@
       </c>
       <c r="K9" s="3">
         <f t="shared" si="0"/>
+        <v>3.1200000000000002E-2</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="1"/>
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>800</v>
       </c>
@@ -874,16 +914,20 @@
       </c>
       <c r="K10" s="3">
         <f t="shared" si="0"/>
+        <v>2.2900000000000004E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="1"/>
         <v>3.4350000000000006E-2</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>800</v>
       </c>
@@ -916,16 +960,20 @@
       </c>
       <c r="K11" s="3">
         <f t="shared" si="0"/>
+        <v>1.3600000000000001E-2</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="1"/>
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>800</v>
       </c>
@@ -958,16 +1006,20 @@
       </c>
       <c r="K12" s="3">
         <f t="shared" si="0"/>
+        <v>1.3700000000000002E-2</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="1"/>
         <v>2.0550000000000002E-2</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>800</v>
       </c>
@@ -1000,16 +1052,20 @@
       </c>
       <c r="K13" s="3">
         <f t="shared" si="0"/>
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="1"/>
         <v>4.9950000000000001E-2</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>800</v>
       </c>
@@ -1042,16 +1098,20 @@
       </c>
       <c r="K14" s="3">
         <f t="shared" si="0"/>
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="1"/>
         <v>6.5849999999999992E-2</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>800</v>
       </c>
@@ -1084,16 +1144,20 @@
       </c>
       <c r="K15" s="3">
         <f t="shared" si="0"/>
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="1"/>
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>800</v>
       </c>
@@ -1126,16 +1190,20 @@
       </c>
       <c r="K16" s="3">
         <f t="shared" si="0"/>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="1"/>
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>800</v>
       </c>
@@ -1168,16 +1236,20 @@
       </c>
       <c r="K17" s="3">
         <f t="shared" si="0"/>
+        <v>2.5900000000000003E-2</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="1"/>
         <v>3.8850000000000003E-2</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>800</v>
       </c>
@@ -1210,16 +1282,20 @@
       </c>
       <c r="K18" s="3">
         <f t="shared" si="0"/>
+        <v>2.2400000000000003E-2</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="1"/>
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>800</v>
       </c>
@@ -1252,16 +1328,20 @@
       </c>
       <c r="K19" s="3">
         <f t="shared" si="0"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="1"/>
         <v>2.7000000000000003E-2</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>800</v>
       </c>
@@ -1294,16 +1374,20 @@
       </c>
       <c r="K20" s="3">
         <f t="shared" si="0"/>
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="1"/>
         <v>1.9650000000000001E-2</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>800</v>
       </c>
@@ -1336,16 +1420,20 @@
       </c>
       <c r="K21" s="3">
         <f t="shared" si="0"/>
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="1"/>
         <v>1.3125000000000001E-2</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M21" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>800</v>
       </c>
@@ -1378,16 +1466,20 @@
       </c>
       <c r="K22" s="3">
         <f t="shared" si="0"/>
+        <v>7.1300000000000009E-3</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="1"/>
         <v>1.0695E-2</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M22" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>800</v>
       </c>
@@ -1420,16 +1512,20 @@
       </c>
       <c r="K23" s="3">
         <f t="shared" si="0"/>
+        <v>4.8200000000000005E-3</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="1"/>
         <v>7.2299999999999994E-3</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M23" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>800</v>
       </c>
@@ -1462,16 +1558,20 @@
       </c>
       <c r="K24" s="3">
         <f t="shared" si="0"/>
+        <v>2.7200000000000002E-3</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="1"/>
         <v>4.0800000000000003E-3</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M24" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>800</v>
       </c>
@@ -1504,16 +1604,20 @@
       </c>
       <c r="K25" s="3">
         <f t="shared" si="0"/>
+        <v>2.1700000000000001E-3</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="1"/>
         <v>3.2550000000000001E-3</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M25" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>800</v>
       </c>
@@ -1546,16 +1650,20 @@
       </c>
       <c r="K26" s="3">
         <f t="shared" si="0"/>
+        <v>1.8400000000000005E-3</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="1"/>
         <v>2.7600000000000003E-3</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M26" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>800</v>
       </c>
@@ -1588,16 +1696,20 @@
       </c>
       <c r="K27" s="3">
         <f t="shared" si="0"/>
+        <v>7.0100000000000015E-3</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="1"/>
         <v>1.0515000000000002E-2</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M27" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>800</v>
       </c>
@@ -1630,16 +1742,20 @@
       </c>
       <c r="K28" s="3">
         <f t="shared" si="0"/>
+        <v>7.8399999999999997E-3</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="1"/>
         <v>1.176E-2</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M28" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>800</v>
       </c>
@@ -1672,16 +1788,20 @@
       </c>
       <c r="K29" s="3">
         <f t="shared" si="0"/>
+        <v>7.1200000000000005E-3</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="1"/>
         <v>1.068E-2</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M29" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>800</v>
       </c>
@@ -1714,16 +1834,20 @@
       </c>
       <c r="K30" s="3">
         <f t="shared" si="0"/>
+        <v>6.2400000000000008E-3</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="1"/>
         <v>9.3600000000000003E-3</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M30" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>800</v>
       </c>
@@ -1756,16 +1880,20 @@
       </c>
       <c r="K31" s="3">
         <f t="shared" si="0"/>
+        <v>5.0300000000000006E-3</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="1"/>
         <v>7.5450000000000005E-3</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M31" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>800</v>
       </c>
@@ -1798,16 +1926,20 @@
       </c>
       <c r="K32" s="3">
         <f t="shared" si="0"/>
+        <v>3.9000000000000003E-3</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="1"/>
         <v>5.8500000000000002E-3</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M32" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>800</v>
       </c>
@@ -1840,16 +1972,20 @@
       </c>
       <c r="K33" s="3">
         <f t="shared" si="0"/>
+        <v>3.1200000000000004E-3</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="1"/>
         <v>4.6800000000000001E-3</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M33" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>800</v>
       </c>
@@ -1882,16 +2018,20 @@
       </c>
       <c r="K34" s="3">
         <f t="shared" si="0"/>
+        <v>2.3400000000000001E-3</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="1"/>
         <v>3.5100000000000001E-3</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M34" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>800</v>
       </c>
@@ -1924,16 +2064,20 @@
       </c>
       <c r="K35" s="3">
         <f t="shared" si="0"/>
+        <v>1.4700000000000002E-3</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="1"/>
         <v>2.2049999999999999E-3</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M35" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>800</v>
       </c>
@@ -1966,16 +2110,20 @@
       </c>
       <c r="K36" s="3">
         <f t="shared" si="0"/>
+        <v>1.3100000000000002E-3</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="1"/>
         <v>1.9650000000000002E-3</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M36" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>800</v>
       </c>
@@ -2008,16 +2156,20 @@
       </c>
       <c r="K37" s="3">
         <f t="shared" si="0"/>
+        <v>7.0500000000000001E-4</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="1"/>
         <v>1.0574999999999998E-3</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M37" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>800</v>
       </c>
@@ -2050,16 +2202,20 @@
       </c>
       <c r="K38" s="3">
         <f t="shared" si="0"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L38" s="3">
+        <f t="shared" si="1"/>
         <v>7.5000000000000002E-4</v>
       </c>
-      <c r="L38" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M38" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>800</v>
       </c>
@@ -2092,16 +2248,20 @@
       </c>
       <c r="K39" s="3">
         <f t="shared" si="0"/>
+        <v>4.5900000000000004E-4</v>
+      </c>
+      <c r="L39" s="3">
+        <f t="shared" si="1"/>
         <v>6.8849999999999998E-4</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M39" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>800</v>
       </c>
@@ -2134,16 +2294,20 @@
       </c>
       <c r="K40" s="3">
         <f t="shared" si="0"/>
+        <v>3.3E-4</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" si="1"/>
         <v>4.95E-4</v>
       </c>
-      <c r="L40" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M40" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>800</v>
       </c>
@@ -2176,16 +2340,20 @@
       </c>
       <c r="K41" s="3">
         <f t="shared" si="0"/>
+        <v>2.1500000000000002E-4</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="1"/>
         <v>3.2249999999999998E-4</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M41" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>800</v>
       </c>
@@ -2218,16 +2386,20 @@
       </c>
       <c r="K42" s="3">
         <f t="shared" si="0"/>
+        <v>1.5900000000000004E-4</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="1"/>
         <v>2.3850000000000002E-4</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M42" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>800</v>
       </c>
@@ -2260,16 +2432,20 @@
       </c>
       <c r="K43" s="3">
         <f t="shared" si="0"/>
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="L43" s="3">
+        <f t="shared" si="1"/>
         <v>7.6199999999999992E-3</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M43" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>800</v>
       </c>
@@ -2302,16 +2478,20 @@
       </c>
       <c r="K44" s="3">
         <f t="shared" si="0"/>
+        <v>6.7900000000000009E-3</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" si="1"/>
         <v>1.0185E-2</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M44" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>800</v>
       </c>
@@ -2344,16 +2524,20 @@
       </c>
       <c r="K45" s="3">
         <f t="shared" si="0"/>
+        <v>6.4600000000000005E-3</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="1"/>
         <v>9.6900000000000007E-3</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M45" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>800</v>
       </c>
@@ -2386,16 +2570,20 @@
       </c>
       <c r="K46" s="3">
         <f t="shared" si="0"/>
+        <v>4.9200000000000008E-3</v>
+      </c>
+      <c r="L46" s="3">
+        <f t="shared" si="1"/>
         <v>7.3799999999999994E-3</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M46" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>800</v>
       </c>
@@ -2428,16 +2616,20 @@
       </c>
       <c r="K47" s="3">
         <f t="shared" si="0"/>
+        <v>4.1700000000000001E-3</v>
+      </c>
+      <c r="L47" s="3">
+        <f t="shared" si="1"/>
         <v>6.2550000000000001E-3</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M47" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>800</v>
       </c>
@@ -2470,16 +2662,20 @@
       </c>
       <c r="K48" s="3">
         <f t="shared" si="0"/>
+        <v>3.2300000000000002E-3</v>
+      </c>
+      <c r="L48" s="3">
+        <f t="shared" si="1"/>
         <v>4.8450000000000003E-3</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M48" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>800</v>
       </c>
@@ -2512,16 +2708,20 @@
       </c>
       <c r="K49" s="3">
         <f t="shared" si="0"/>
+        <v>2.4700000000000004E-3</v>
+      </c>
+      <c r="L49" s="3">
+        <f t="shared" si="1"/>
         <v>3.7050000000000004E-3</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M49" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>800</v>
       </c>
@@ -2554,16 +2754,20 @@
       </c>
       <c r="K50" s="3">
         <f t="shared" si="0"/>
+        <v>1.9400000000000001E-3</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" si="1"/>
         <v>2.9099999999999998E-3</v>
       </c>
-      <c r="L50" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M50" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>800</v>
       </c>
@@ -2596,16 +2800,20 @@
       </c>
       <c r="K51" s="3">
         <f t="shared" si="0"/>
+        <v>1.3700000000000001E-3</v>
+      </c>
+      <c r="L51" s="3">
+        <f t="shared" si="1"/>
         <v>2.055E-3</v>
       </c>
-      <c r="L51" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M51" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>800</v>
       </c>
@@ -2638,16 +2846,20 @@
       </c>
       <c r="K52" s="3">
         <f t="shared" si="0"/>
+        <v>8.6600000000000012E-4</v>
+      </c>
+      <c r="L52" s="3">
+        <f t="shared" si="1"/>
         <v>1.299E-3</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M52" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>800</v>
       </c>
@@ -2680,16 +2892,20 @@
       </c>
       <c r="K53" s="3">
         <f t="shared" si="0"/>
+        <v>6.7900000000000013E-4</v>
+      </c>
+      <c r="L53" s="3">
+        <f t="shared" si="1"/>
         <v>1.0185000000000001E-3</v>
       </c>
-      <c r="L53" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M53" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>800</v>
       </c>
@@ -2722,16 +2938,20 @@
       </c>
       <c r="K54" s="3">
         <f t="shared" si="0"/>
+        <v>4.4000000000000007E-4</v>
+      </c>
+      <c r="L54" s="3">
+        <f t="shared" si="1"/>
         <v>6.6E-4</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M54" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>800</v>
       </c>
@@ -2764,16 +2984,20 @@
       </c>
       <c r="K55" s="3">
         <f t="shared" si="0"/>
+        <v>3.3400000000000004E-4</v>
+      </c>
+      <c r="L55" s="3">
+        <f t="shared" si="1"/>
         <v>5.0100000000000003E-4</v>
       </c>
-      <c r="L55" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M55" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>800</v>
       </c>
@@ -2806,16 +3030,20 @@
       </c>
       <c r="K56" s="3">
         <f t="shared" si="0"/>
+        <v>2.6200000000000003E-4</v>
+      </c>
+      <c r="L56" s="3">
+        <f t="shared" si="1"/>
         <v>3.9300000000000007E-4</v>
       </c>
-      <c r="L56" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M56" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>800</v>
       </c>
@@ -2848,16 +3076,20 @@
       </c>
       <c r="K57" s="3">
         <f t="shared" si="0"/>
+        <v>1.65E-4</v>
+      </c>
+      <c r="L57" s="3">
+        <f t="shared" si="1"/>
         <v>2.475E-4</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M57" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>800</v>
       </c>
@@ -2890,16 +3122,20 @@
       </c>
       <c r="K58" s="3">
         <f t="shared" si="0"/>
+        <v>1.2000000000000002E-4</v>
+      </c>
+      <c r="L58" s="3">
+        <f t="shared" si="1"/>
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M58" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>800</v>
       </c>
@@ -2932,16 +3168,20 @@
       </c>
       <c r="K59" s="3">
         <f t="shared" si="0"/>
+        <v>1.1100000000000001E-4</v>
+      </c>
+      <c r="L59" s="3">
+        <f t="shared" si="1"/>
         <v>1.6650000000000001E-4</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M59" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>800</v>
       </c>
@@ -2974,16 +3214,20 @@
       </c>
       <c r="K60" s="3">
         <f t="shared" si="0"/>
+        <v>6.5400000000000004E-5</v>
+      </c>
+      <c r="L60" s="3">
+        <f t="shared" si="1"/>
         <v>9.8100000000000013E-5</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M60" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>800</v>
       </c>
@@ -3016,16 +3260,20 @@
       </c>
       <c r="K61" s="3">
         <f t="shared" si="0"/>
+        <v>2.4000000000000007E-3</v>
+      </c>
+      <c r="L61" s="3">
+        <f t="shared" si="1"/>
         <v>3.6000000000000003E-3</v>
       </c>
-      <c r="L61" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M61" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>800</v>
       </c>
@@ -3058,16 +3306,20 @@
       </c>
       <c r="K62" s="3">
         <f t="shared" si="0"/>
+        <v>2.0600000000000002E-3</v>
+      </c>
+      <c r="L62" s="3">
+        <f t="shared" si="1"/>
         <v>3.0899999999999999E-3</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M62" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>800</v>
       </c>
@@ -3100,16 +3352,20 @@
       </c>
       <c r="K63" s="3">
         <f t="shared" si="0"/>
+        <v>1.8800000000000002E-3</v>
+      </c>
+      <c r="L63" s="3">
+        <f t="shared" si="1"/>
         <v>2.82E-3</v>
       </c>
-      <c r="L63" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M63" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>800</v>
       </c>
@@ -3142,16 +3398,20 @@
       </c>
       <c r="K64" s="3">
         <f t="shared" si="0"/>
+        <v>1.7100000000000001E-3</v>
+      </c>
+      <c r="L64" s="3">
+        <f t="shared" si="1"/>
         <v>2.565E-3</v>
       </c>
-      <c r="L64" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M64" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>800</v>
       </c>
@@ -3184,16 +3444,20 @@
       </c>
       <c r="K65" s="3">
         <f t="shared" si="0"/>
+        <v>9.7300000000000012E-4</v>
+      </c>
+      <c r="L65" s="3">
+        <f t="shared" si="1"/>
         <v>1.4595000000000001E-3</v>
       </c>
-      <c r="L65" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M65" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>800</v>
       </c>
@@ -3226,16 +3490,20 @@
       </c>
       <c r="K66" s="3">
         <f t="shared" si="0"/>
+        <v>1.07E-3</v>
+      </c>
+      <c r="L66" s="3">
+        <f t="shared" si="1"/>
         <v>1.6049999999999999E-3</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M66" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>800</v>
       </c>
@@ -3267,17 +3535,21 @@
         <v>8.8000000000000003E-4</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" ref="K67:K75" si="1">0.15*I67</f>
+        <f t="shared" ref="K67:K75" si="2">0.1*I67</f>
+        <v>7.9100000000000004E-4</v>
+      </c>
+      <c r="L67" s="3">
+        <f t="shared" ref="L67:L75" si="3">0.15*I67</f>
         <v>1.1865000000000001E-3</v>
       </c>
-      <c r="L67" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M67" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>800</v>
       </c>
@@ -3309,17 +3581,21 @@
         <v>7.000000000000001E-4</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>6.0500000000000007E-4</v>
+      </c>
+      <c r="L68" s="3">
+        <f t="shared" si="3"/>
         <v>9.075000000000001E-4</v>
       </c>
-      <c r="L68" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M68" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>800</v>
       </c>
@@ -3351,17 +3627,21 @@
         <v>5.1000000000000004E-4</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>3.5000000000000005E-4</v>
+      </c>
+      <c r="L69" s="3">
+        <f t="shared" si="3"/>
         <v>5.2499999999999997E-4</v>
       </c>
-      <c r="L69" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M69" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>800</v>
       </c>
@@ -3393,17 +3673,21 @@
         <v>3.6000000000000002E-4</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>1.9400000000000003E-4</v>
+      </c>
+      <c r="L70" s="3">
+        <f t="shared" si="3"/>
         <v>2.9100000000000003E-4</v>
       </c>
-      <c r="L70" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M70" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>800</v>
       </c>
@@ -3435,17 +3719,21 @@
         <v>3.6999999999999999E-4</v>
       </c>
       <c r="K71" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L71" s="3">
+        <f t="shared" si="3"/>
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="L71" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M71" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>800</v>
       </c>
@@ -3477,17 +3765,21 @@
         <v>2.9E-4</v>
       </c>
       <c r="K72" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>1.3600000000000003E-4</v>
+      </c>
+      <c r="L72" s="3">
+        <f t="shared" si="3"/>
         <v>2.04E-4</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M72" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>800</v>
       </c>
@@ -3519,17 +3811,21 @@
         <v>2.9E-4</v>
       </c>
       <c r="K73" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>1.3600000000000003E-4</v>
+      </c>
+      <c r="L73" s="3">
+        <f t="shared" si="3"/>
         <v>2.04E-4</v>
       </c>
-      <c r="L73" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M73" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>800</v>
       </c>
@@ -3561,17 +3857,21 @@
         <v>1.9099999999999998E-4</v>
       </c>
       <c r="K74" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>6.0000000000000008E-5</v>
+      </c>
+      <c r="L74" s="3">
+        <f t="shared" si="3"/>
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="L74" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M74" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>800</v>
       </c>
@@ -3603,13 +3903,17 @@
         <v>1.6600000000000002E-4</v>
       </c>
       <c r="K75" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>4.35E-5</v>
+      </c>
+      <c r="L75" s="3">
+        <f t="shared" si="3"/>
         <v>6.525E-5</v>
       </c>
-      <c r="L75" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N75" s="3" t="s">
         <v>14</v>
       </c>
     </row>

--- a/proton_qT/expdata/10605.xlsx
+++ b/proton_qT/expdata/10605.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4586435C-C640-4244-A8BD-D9168923F6F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6B0931-4A40-5043-B149-F9CC61D8DAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="3700" windowWidth="28040" windowHeight="16460" xr2:uid="{487361BB-D140-9C49-9E52-83089BC7FE17}"/>
   </bookViews>
@@ -72,16 +72,16 @@
     <t>pp</t>
   </si>
   <si>
-    <t>M_min</t>
-  </si>
-  <si>
-    <t>M_max</t>
-  </si>
-  <si>
     <t>xF</t>
   </si>
   <si>
     <t>syst_c</t>
+  </si>
+  <si>
+    <t>Qmin</t>
+  </si>
+  <si>
+    <t>Qmax</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>

--- a/proton_qT/expdata/10605.xlsx
+++ b/proton_qT/expdata/10605.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6B0931-4A40-5043-B149-F9CC61D8DAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A885D37-D6FE-D546-8654-018B1C7DB7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="3700" windowWidth="28040" windowHeight="16460" xr2:uid="{487361BB-D140-9C49-9E52-83089BC7FE17}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="21">
   <si>
     <t>pT</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Qmax</t>
+  </si>
+  <si>
+    <t>pTmin</t>
+  </si>
+  <si>
+    <t>pTmax</t>
   </si>
 </sst>
 </file>
@@ -454,22 +460,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CAB3A1-02DB-DB48-BB5F-44F34CA17139}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
+    <col min="1" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -483,37 +489,43 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>800</v>
       </c>
@@ -527,39 +539,45 @@
         <v>0.1</v>
       </c>
       <c r="E2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3">
         <v>0.78500000000000003</v>
       </c>
-      <c r="J2" s="3">
+      <c r="L2" s="3">
         <v>0.115</v>
       </c>
-      <c r="K2" s="3">
-        <f>0.1*I2</f>
+      <c r="M2" s="3">
+        <f>0.1*K2</f>
         <v>7.8500000000000014E-2</v>
       </c>
-      <c r="L2" s="3">
-        <f>0.15*I2</f>
+      <c r="N2" s="3">
+        <f>0.15*K2</f>
         <v>0.11774999999999999</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>800</v>
       </c>
@@ -573,39 +591,45 @@
         <v>0.1</v>
       </c>
       <c r="E3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3">
         <v>0.97299999999999998</v>
       </c>
-      <c r="J3" s="3">
+      <c r="L3" s="3">
         <v>8.6000000000000007E-2</v>
       </c>
-      <c r="K3" s="3">
-        <f t="shared" ref="K3:K66" si="0">0.1*I3</f>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M66" si="0">0.1*K3</f>
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="L3" s="3">
-        <f t="shared" ref="L3:L66" si="1">0.15*I3</f>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:N66" si="1">0.15*K3</f>
         <v>0.14595</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>800</v>
       </c>
@@ -619,39 +643,45 @@
         <v>0.1</v>
       </c>
       <c r="E4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.5</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="3">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3">
         <v>0.82500000000000007</v>
       </c>
-      <c r="J4" s="3">
+      <c r="L4" s="3">
         <v>6.2E-2</v>
       </c>
-      <c r="K4" s="3">
+      <c r="M4" s="3">
         <f t="shared" si="0"/>
         <v>8.2500000000000018E-2</v>
       </c>
-      <c r="L4" s="3">
+      <c r="N4" s="3">
         <f t="shared" si="1"/>
         <v>0.12375</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>800</v>
       </c>
@@ -665,39 +695,45 @@
         <v>0.1</v>
       </c>
       <c r="E5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.7</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="3">
         <v>0.80500000000000016</v>
       </c>
-      <c r="J5" s="3">
+      <c r="L5" s="3">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="K5" s="3">
+      <c r="M5" s="3">
         <f t="shared" si="0"/>
         <v>8.0500000000000016E-2</v>
       </c>
-      <c r="L5" s="3">
+      <c r="N5" s="3">
         <f t="shared" si="1"/>
         <v>0.12075000000000002</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>800</v>
       </c>
@@ -711,39 +747,45 @@
         <v>0.1</v>
       </c>
       <c r="E6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.9</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="3">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="3">
         <v>0.56900000000000006</v>
       </c>
-      <c r="J6" s="3">
+      <c r="L6" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="K6" s="3">
+      <c r="M6" s="3">
         <f t="shared" si="0"/>
         <v>5.6900000000000006E-2</v>
       </c>
-      <c r="L6" s="3">
+      <c r="N6" s="3">
         <f t="shared" si="1"/>
         <v>8.5350000000000009E-2</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>800</v>
       </c>
@@ -757,39 +799,45 @@
         <v>0.1</v>
       </c>
       <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G7" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="3">
         <v>0.53700000000000003</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="3">
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="K7" s="3">
+      <c r="M7" s="3">
         <f t="shared" si="0"/>
         <v>5.3700000000000005E-2</v>
       </c>
-      <c r="L7" s="3">
+      <c r="N7" s="3">
         <f t="shared" si="1"/>
         <v>8.0549999999999997E-2</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>800</v>
       </c>
@@ -803,39 +851,45 @@
         <v>0.1</v>
       </c>
       <c r="E8" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G8" s="1">
         <v>1.3</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="3">
         <v>0.38800000000000007</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3.9E-2</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <f t="shared" si="0"/>
         <v>3.8800000000000008E-2</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <f t="shared" si="1"/>
         <v>5.8200000000000009E-2</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>800</v>
       </c>
@@ -849,39 +903,45 @@
         <v>0.1</v>
       </c>
       <c r="E9" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G9" s="1">
         <v>1.5</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="3">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="3">
         <v>0.312</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <f t="shared" si="0"/>
         <v>3.1200000000000002E-2</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <f t="shared" si="1"/>
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>800</v>
       </c>
@@ -895,39 +955,45 @@
         <v>0.1</v>
       </c>
       <c r="E10" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G10" s="1">
         <v>1.7</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="3">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="3">
         <v>0.22900000000000004</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3.7000000000000005E-2</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <f t="shared" si="0"/>
         <v>2.2900000000000004E-2</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <f t="shared" si="1"/>
         <v>3.4350000000000006E-2</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>800</v>
       </c>
@@ -941,39 +1007,45 @@
         <v>0.1</v>
       </c>
       <c r="E11" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
         <v>1.9</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="3">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3">
         <v>0.13600000000000001</v>
       </c>
-      <c r="J11" s="3">
+      <c r="L11" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="K11" s="3">
+      <c r="M11" s="3">
         <f t="shared" si="0"/>
         <v>1.3600000000000001E-2</v>
       </c>
-      <c r="L11" s="3">
+      <c r="N11" s="3">
         <f t="shared" si="1"/>
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>800</v>
       </c>
@@ -987,39 +1059,45 @@
         <v>0.1</v>
       </c>
       <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G12" s="1">
         <v>2.1</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="3">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="3">
         <v>0.13700000000000001</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>4.3000000000000003E-2</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <f t="shared" si="0"/>
         <v>1.3700000000000002E-2</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <f t="shared" si="1"/>
         <v>2.0550000000000002E-2</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>800</v>
       </c>
@@ -1033,39 +1111,45 @@
         <v>0.1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="3">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="3">
         <v>0.33300000000000002</v>
       </c>
-      <c r="J13" s="3">
+      <c r="L13" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K13" s="3">
+      <c r="M13" s="3">
         <f t="shared" si="0"/>
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="L13" s="3">
+      <c r="N13" s="3">
         <f t="shared" si="1"/>
         <v>4.9950000000000001E-2</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>800</v>
       </c>
@@ -1079,39 +1163,45 @@
         <v>0.1</v>
       </c>
       <c r="E14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G14" s="1">
         <v>0.3</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>0.439</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>0.02</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <f t="shared" si="0"/>
         <v>4.3900000000000002E-2</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <f t="shared" si="1"/>
         <v>6.5849999999999992E-2</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>800</v>
       </c>
@@ -1125,39 +1215,45 @@
         <v>0.1</v>
       </c>
       <c r="E15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="1">
         <v>0.5</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="3">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="3">
         <v>0.36799999999999999</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <f t="shared" si="0"/>
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <f t="shared" si="1"/>
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>800</v>
       </c>
@@ -1171,39 +1267,45 @@
         <v>0.1</v>
       </c>
       <c r="E16" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G16" s="1">
         <v>0.7</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="3">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="3">
         <v>0.37</v>
       </c>
-      <c r="J16" s="3">
+      <c r="L16" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="K16" s="3">
+      <c r="M16" s="3">
         <f t="shared" si="0"/>
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="L16" s="3">
+      <c r="N16" s="3">
         <f t="shared" si="1"/>
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>800</v>
       </c>
@@ -1217,39 +1319,45 @@
         <v>0.1</v>
       </c>
       <c r="E17" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
         <v>0.9</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="3">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="3">
         <v>0.25900000000000001</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>0.01</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <f t="shared" si="0"/>
         <v>2.5900000000000003E-2</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <f t="shared" si="1"/>
         <v>3.8850000000000003E-2</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>800</v>
       </c>
@@ -1263,39 +1371,45 @@
         <v>0.1</v>
       </c>
       <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G18" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="3">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="3">
         <v>0.224</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <f t="shared" si="0"/>
         <v>2.2400000000000003E-2</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <f t="shared" si="1"/>
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>800</v>
       </c>
@@ -1309,39 +1423,45 @@
         <v>0.1</v>
       </c>
       <c r="E19" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G19" s="1">
         <v>1.3</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="3">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="3">
         <v>0.18000000000000002</v>
       </c>
-      <c r="J19" s="3">
+      <c r="L19" s="3">
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="K19" s="3">
+      <c r="M19" s="3">
         <f t="shared" si="0"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="L19" s="3">
+      <c r="N19" s="3">
         <f t="shared" si="1"/>
         <v>2.7000000000000003E-2</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>800</v>
       </c>
@@ -1355,39 +1475,45 @@
         <v>0.1</v>
       </c>
       <c r="E20" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G20" s="1">
         <v>1.5</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="3">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="3">
         <v>0.13100000000000001</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <f t="shared" si="0"/>
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <f t="shared" si="1"/>
         <v>1.9650000000000001E-2</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>800</v>
       </c>
@@ -1401,39 +1527,45 @@
         <v>0.1</v>
       </c>
       <c r="E21" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G21" s="1">
         <v>1.7</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="3">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="3">
         <v>8.7500000000000008E-2</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>6.8000000000000005E-3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <f t="shared" si="0"/>
         <v>8.7500000000000008E-3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <f t="shared" si="1"/>
         <v>1.3125000000000001E-2</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>800</v>
       </c>
@@ -1447,39 +1579,45 @@
         <v>0.1</v>
       </c>
       <c r="E22" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
         <v>1.9</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="3">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="3">
         <v>7.1300000000000002E-2</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <f t="shared" si="0"/>
         <v>7.1300000000000009E-3</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <f t="shared" si="1"/>
         <v>1.0695E-2</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>800</v>
       </c>
@@ -1493,39 +1631,45 @@
         <v>0.1</v>
       </c>
       <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G23" s="1">
         <v>2.1</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="3">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="3">
         <v>4.82E-2</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>6.3E-3</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <f t="shared" si="0"/>
         <v>4.8200000000000005E-3</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <f t="shared" si="1"/>
         <v>7.2299999999999994E-3</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>800</v>
       </c>
@@ -1539,39 +1683,45 @@
         <v>0.1</v>
       </c>
       <c r="E24" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="G24" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="3">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="3">
         <v>2.7200000000000002E-2</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <f t="shared" si="0"/>
         <v>2.7200000000000002E-3</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <f t="shared" si="1"/>
         <v>4.0800000000000003E-3</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>800</v>
       </c>
@@ -1585,39 +1735,45 @@
         <v>0.1</v>
       </c>
       <c r="E25" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G25" s="1">
         <v>2.5</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="3">
+        <v>6</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="3">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="J25" s="3">
+      <c r="L25" s="3">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K25" s="3">
+      <c r="M25" s="3">
         <f t="shared" si="0"/>
         <v>2.1700000000000001E-3</v>
       </c>
-      <c r="L25" s="3">
+      <c r="N25" s="3">
         <f t="shared" si="1"/>
         <v>3.2550000000000001E-3</v>
       </c>
-      <c r="M25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>800</v>
       </c>
@@ -1631,39 +1787,45 @@
         <v>0.1</v>
       </c>
       <c r="E26" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G26" s="1">
         <v>2.7</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="3">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="3">
         <v>1.8400000000000003E-2</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <f t="shared" si="0"/>
         <v>1.8400000000000005E-3</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <f t="shared" si="1"/>
         <v>2.7600000000000003E-3</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>800</v>
       </c>
@@ -1677,39 +1839,45 @@
         <v>0.1</v>
       </c>
       <c r="E27" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="3">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="3">
         <v>7.010000000000001E-2</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <f t="shared" si="0"/>
         <v>7.0100000000000015E-3</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <f t="shared" si="1"/>
         <v>1.0515000000000002E-2</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>800</v>
       </c>
@@ -1723,39 +1891,45 @@
         <v>0.1</v>
       </c>
       <c r="E28" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G28" s="1">
         <v>0.3</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="3">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="3">
         <v>7.8399999999999997E-2</v>
       </c>
-      <c r="J28" s="3">
+      <c r="L28" s="3">
         <v>5.5000000000000005E-3</v>
       </c>
-      <c r="K28" s="3">
+      <c r="M28" s="3">
         <f t="shared" si="0"/>
         <v>7.8399999999999997E-3</v>
       </c>
-      <c r="L28" s="3">
+      <c r="N28" s="3">
         <f t="shared" si="1"/>
         <v>1.176E-2</v>
       </c>
-      <c r="M28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>800</v>
       </c>
@@ -1769,39 +1943,45 @@
         <v>0.1</v>
       </c>
       <c r="E29" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G29" s="1">
         <v>0.5</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="3">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <f t="shared" si="0"/>
         <v>7.1200000000000005E-3</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <f t="shared" si="1"/>
         <v>1.068E-2</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>800</v>
       </c>
@@ -1815,39 +1995,45 @@
         <v>0.1</v>
       </c>
       <c r="E30" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G30" s="1">
         <v>0.7</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="3">
+        <v>6</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="3">
         <v>6.2400000000000004E-2</v>
       </c>
-      <c r="J30" s="3">
+      <c r="L30" s="3">
         <v>3.3E-3</v>
       </c>
-      <c r="K30" s="3">
+      <c r="M30" s="3">
         <f t="shared" si="0"/>
         <v>6.2400000000000008E-3</v>
       </c>
-      <c r="L30" s="3">
+      <c r="N30" s="3">
         <f t="shared" si="1"/>
         <v>9.3600000000000003E-3</v>
       </c>
-      <c r="M30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>800</v>
       </c>
@@ -1861,39 +2047,45 @@
         <v>0.1</v>
       </c>
       <c r="E31" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
         <v>0.9</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="3">
+        <v>6</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="3">
         <v>5.0300000000000004E-2</v>
       </c>
-      <c r="J31" s="3">
+      <c r="L31" s="3">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="K31" s="3">
+      <c r="M31" s="3">
         <f t="shared" si="0"/>
         <v>5.0300000000000006E-3</v>
       </c>
-      <c r="L31" s="3">
+      <c r="N31" s="3">
         <f t="shared" si="1"/>
         <v>7.5450000000000005E-3</v>
       </c>
-      <c r="M31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>800</v>
       </c>
@@ -1907,39 +2099,45 @@
         <v>0.1</v>
       </c>
       <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G32" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="3">
+        <v>6</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="3">
         <v>3.9E-2</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <f t="shared" si="0"/>
         <v>3.9000000000000003E-3</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <f t="shared" si="1"/>
         <v>5.8500000000000002E-3</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>800</v>
       </c>
@@ -1953,39 +2151,45 @@
         <v>0.1</v>
       </c>
       <c r="E33" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G33" s="1">
         <v>1.3</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="3">
+        <v>6</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="3">
         <v>3.1200000000000002E-2</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1.8000000000000002E-3</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <f t="shared" si="0"/>
         <v>3.1200000000000004E-3</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <f t="shared" si="1"/>
         <v>4.6800000000000001E-3</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>800</v>
       </c>
@@ -1999,39 +2203,45 @@
         <v>0.1</v>
       </c>
       <c r="E34" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G34" s="1">
         <v>1.5</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="3">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="3">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="J34" s="3">
+      <c r="L34" s="3">
         <v>1.5000000000000002E-3</v>
       </c>
-      <c r="K34" s="3">
+      <c r="M34" s="3">
         <f t="shared" si="0"/>
         <v>2.3400000000000001E-3</v>
       </c>
-      <c r="L34" s="3">
+      <c r="N34" s="3">
         <f t="shared" si="1"/>
         <v>3.5100000000000001E-3</v>
       </c>
-      <c r="M34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>800</v>
       </c>
@@ -2045,39 +2255,45 @@
         <v>0.1</v>
       </c>
       <c r="E35" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G35" s="1">
         <v>1.7</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="3">
+        <v>6</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="3">
         <v>1.4700000000000001E-2</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1E-3</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <f t="shared" si="0"/>
         <v>1.4700000000000002E-3</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <f t="shared" si="1"/>
         <v>2.2049999999999999E-3</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>800</v>
       </c>
@@ -2091,39 +2307,45 @@
         <v>0.1</v>
       </c>
       <c r="E36" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1">
         <v>1.9</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="3">
+        <v>6</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="3">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="J36" s="3">
+      <c r="L36" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="K36" s="3">
+      <c r="M36" s="3">
         <f t="shared" si="0"/>
         <v>1.3100000000000002E-3</v>
       </c>
-      <c r="L36" s="3">
+      <c r="N36" s="3">
         <f t="shared" si="1"/>
         <v>1.9650000000000002E-3</v>
       </c>
-      <c r="M36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>800</v>
       </c>
@@ -2137,39 +2359,45 @@
         <v>0.1</v>
       </c>
       <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G37" s="1">
         <v>2.1</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="3">
+        <v>6</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="3">
         <v>7.0499999999999998E-3</v>
       </c>
-      <c r="J37" s="3">
+      <c r="L37" s="3">
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="K37" s="3">
+      <c r="M37" s="3">
         <f t="shared" si="0"/>
         <v>7.0500000000000001E-4</v>
       </c>
-      <c r="L37" s="3">
+      <c r="N37" s="3">
         <f t="shared" si="1"/>
         <v>1.0574999999999998E-3</v>
       </c>
-      <c r="M37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>800</v>
       </c>
@@ -2183,39 +2411,45 @@
         <v>0.1</v>
       </c>
       <c r="E38" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="G38" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="3">
+        <v>6</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J38" s="3">
+      <c r="L38" s="3">
         <v>6.1000000000000008E-4</v>
       </c>
-      <c r="K38" s="3">
+      <c r="M38" s="3">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="L38" s="3">
+      <c r="N38" s="3">
         <f t="shared" si="1"/>
         <v>7.5000000000000002E-4</v>
       </c>
-      <c r="M38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>800</v>
       </c>
@@ -2229,39 +2463,45 @@
         <v>0.1</v>
       </c>
       <c r="E39" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G39" s="1">
         <v>2.5</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="3">
+        <v>6</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="3">
         <v>4.5900000000000003E-3</v>
       </c>
-      <c r="J39" s="3">
+      <c r="L39" s="3">
         <v>6.2E-4</v>
       </c>
-      <c r="K39" s="3">
+      <c r="M39" s="3">
         <f t="shared" si="0"/>
         <v>4.5900000000000004E-4</v>
       </c>
-      <c r="L39" s="3">
+      <c r="N39" s="3">
         <f t="shared" si="1"/>
         <v>6.8849999999999998E-4</v>
       </c>
-      <c r="M39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>800</v>
       </c>
@@ -2275,39 +2515,45 @@
         <v>0.1</v>
       </c>
       <c r="E40" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G40" s="1">
         <v>2.7</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="3">
+        <v>6</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="3">
         <v>3.3E-3</v>
       </c>
-      <c r="J40" s="3">
+      <c r="L40" s="3">
         <v>5.9000000000000003E-4</v>
       </c>
-      <c r="K40" s="3">
+      <c r="M40" s="3">
         <f t="shared" si="0"/>
         <v>3.3E-4</v>
       </c>
-      <c r="L40" s="3">
+      <c r="N40" s="3">
         <f t="shared" si="1"/>
         <v>4.95E-4</v>
       </c>
-      <c r="M40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>800</v>
       </c>
@@ -2321,39 +2567,45 @@
         <v>0.1</v>
       </c>
       <c r="E41" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1">
         <v>2.9</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="3">
+        <v>6</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="3">
         <v>2.15E-3</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <f t="shared" si="0"/>
         <v>2.1500000000000002E-4</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <f t="shared" si="1"/>
         <v>3.2249999999999998E-4</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>800</v>
       </c>
@@ -2367,39 +2619,45 @@
         <v>0.1</v>
       </c>
       <c r="E42" s="1">
+        <v>3</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="G42" s="1">
         <v>3.1</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="3">
+        <v>6</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="3">
         <v>1.5900000000000003E-3</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>5.2000000000000006E-4</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <f t="shared" si="0"/>
         <v>1.5900000000000004E-4</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <f t="shared" si="1"/>
         <v>2.3850000000000002E-4</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>800</v>
       </c>
@@ -2413,39 +2671,45 @@
         <v>0.1</v>
       </c>
       <c r="E43" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.1</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="3">
+        <v>6</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="3">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>6.3999999999999994E-3</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <f t="shared" si="0"/>
         <v>5.0800000000000003E-3</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <f t="shared" si="1"/>
         <v>7.6199999999999992E-3</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>800</v>
       </c>
@@ -2459,39 +2723,45 @@
         <v>0.1</v>
       </c>
       <c r="E44" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G44" s="1">
         <v>0.3</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="3">
+        <v>6</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="3">
         <v>6.7900000000000002E-2</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>4.8000000000000004E-3</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <f t="shared" si="0"/>
         <v>6.7900000000000009E-3</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <f t="shared" si="1"/>
         <v>1.0185E-2</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>800</v>
       </c>
@@ -2505,39 +2775,45 @@
         <v>0.1</v>
       </c>
       <c r="E45" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G45" s="1">
         <v>0.5</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="3">
+        <v>6</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="3">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3.9000000000000003E-3</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <f t="shared" si="0"/>
         <v>6.4600000000000005E-3</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <f t="shared" si="1"/>
         <v>9.6900000000000007E-3</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>800</v>
       </c>
@@ -2551,39 +2827,45 @@
         <v>0.1</v>
       </c>
       <c r="E46" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G46" s="1">
         <v>0.7</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="3">
+        <v>6</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="3">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <f t="shared" si="0"/>
         <v>4.9200000000000008E-3</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <f t="shared" si="1"/>
         <v>7.3799999999999994E-3</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>800</v>
       </c>
@@ -2597,39 +2879,45 @@
         <v>0.1</v>
       </c>
       <c r="E47" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
         <v>0.9</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="3">
+        <v>6</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="3">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <f t="shared" si="0"/>
         <v>4.1700000000000001E-3</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <f t="shared" si="1"/>
         <v>6.2550000000000001E-3</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>800</v>
       </c>
@@ -2643,39 +2931,45 @@
         <v>0.1</v>
       </c>
       <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G48" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="3">
+        <v>6</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="3">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1.8000000000000002E-3</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <f t="shared" si="0"/>
         <v>3.2300000000000002E-3</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <f t="shared" si="1"/>
         <v>4.8450000000000003E-3</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>800</v>
       </c>
@@ -2689,39 +2983,45 @@
         <v>0.1</v>
       </c>
       <c r="E49" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G49" s="1">
         <v>1.3</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="3">
+        <v>6</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="3">
         <v>2.4700000000000003E-2</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1.5000000000000002E-3</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <f t="shared" si="0"/>
         <v>2.4700000000000004E-3</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <f t="shared" si="1"/>
         <v>3.7050000000000004E-3</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>800</v>
       </c>
@@ -2735,39 +3035,45 @@
         <v>0.1</v>
       </c>
       <c r="E50" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G50" s="1">
         <v>1.5</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="3">
+        <v>6</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" s="3">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="J50" s="3">
+      <c r="L50" s="3">
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="K50" s="3">
+      <c r="M50" s="3">
         <f t="shared" si="0"/>
         <v>1.9400000000000001E-3</v>
       </c>
-      <c r="L50" s="3">
+      <c r="N50" s="3">
         <f t="shared" si="1"/>
         <v>2.9099999999999998E-3</v>
       </c>
-      <c r="M50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>800</v>
       </c>
@@ -2781,39 +3087,45 @@
         <v>0.1</v>
       </c>
       <c r="E51" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G51" s="1">
         <v>1.7</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="3">
+        <v>6</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K51" s="3">
         <v>1.37E-2</v>
       </c>
-      <c r="J51" s="3">
+      <c r="L51" s="3">
         <v>1E-3</v>
       </c>
-      <c r="K51" s="3">
+      <c r="M51" s="3">
         <f t="shared" si="0"/>
         <v>1.3700000000000001E-3</v>
       </c>
-      <c r="L51" s="3">
+      <c r="N51" s="3">
         <f t="shared" si="1"/>
         <v>2.055E-3</v>
       </c>
-      <c r="M51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>800</v>
       </c>
@@ -2827,39 +3139,45 @@
         <v>0.1</v>
       </c>
       <c r="E52" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1">
         <v>1.9</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="3">
+        <v>6</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="3">
         <v>8.660000000000001E-3</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7.3000000000000007E-4</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <f t="shared" si="0"/>
         <v>8.6600000000000012E-4</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <f t="shared" si="1"/>
         <v>1.299E-3</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>800</v>
       </c>
@@ -2873,39 +3191,45 @@
         <v>0.1</v>
       </c>
       <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G53" s="1">
         <v>2.1</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="3">
+        <v>6</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="3">
         <v>6.7900000000000009E-3</v>
       </c>
-      <c r="J53" s="3">
+      <c r="L53" s="3">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="K53" s="3">
+      <c r="M53" s="3">
         <f t="shared" si="0"/>
         <v>6.7900000000000013E-4</v>
       </c>
-      <c r="L53" s="3">
+      <c r="N53" s="3">
         <f t="shared" si="1"/>
         <v>1.0185000000000001E-3</v>
       </c>
-      <c r="M53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>800</v>
       </c>
@@ -2919,39 +3243,45 @@
         <v>0.1</v>
       </c>
       <c r="E54" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="G54" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="3">
+        <v>6</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="3">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5.5000000000000003E-4</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <f t="shared" si="0"/>
         <v>4.4000000000000007E-4</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <f t="shared" si="1"/>
         <v>6.6E-4</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>800</v>
       </c>
@@ -2965,39 +3295,45 @@
         <v>0.1</v>
       </c>
       <c r="E55" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G55" s="1">
         <v>2.5</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="3">
+        <v>6</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="3">
         <v>3.3400000000000001E-3</v>
       </c>
-      <c r="J55" s="3">
+      <c r="L55" s="3">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="K55" s="3">
+      <c r="M55" s="3">
         <f t="shared" si="0"/>
         <v>3.3400000000000004E-4</v>
       </c>
-      <c r="L55" s="3">
+      <c r="N55" s="3">
         <f t="shared" si="1"/>
         <v>5.0100000000000003E-4</v>
       </c>
-      <c r="M55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>800</v>
       </c>
@@ -3011,39 +3347,45 @@
         <v>0.1</v>
       </c>
       <c r="E56" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G56" s="1">
         <v>2.7</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="3">
+        <v>6</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="3">
         <v>2.6200000000000004E-3</v>
       </c>
-      <c r="J56" s="3">
+      <c r="L56" s="3">
         <v>4.2000000000000007E-4</v>
       </c>
-      <c r="K56" s="3">
+      <c r="M56" s="3">
         <f t="shared" si="0"/>
         <v>2.6200000000000003E-4</v>
       </c>
-      <c r="L56" s="3">
+      <c r="N56" s="3">
         <f t="shared" si="1"/>
         <v>3.9300000000000007E-4</v>
       </c>
-      <c r="M56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>800</v>
       </c>
@@ -3057,39 +3399,45 @@
         <v>0.1</v>
       </c>
       <c r="E57" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="F57" s="1">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1">
         <v>2.9</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="3">
+        <v>6</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" s="3">
         <v>1.65E-3</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3.3E-4</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <f t="shared" si="0"/>
         <v>1.65E-4</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <f t="shared" si="1"/>
         <v>2.475E-4</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>800</v>
       </c>
@@ -3103,39 +3451,45 @@
         <v>0.1</v>
       </c>
       <c r="E58" s="1">
+        <v>3</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="G58" s="1">
         <v>3.1</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="3">
+        <v>6</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="3">
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2.8000000000000003E-4</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <f t="shared" si="0"/>
         <v>1.2000000000000002E-4</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <f t="shared" si="1"/>
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>800</v>
       </c>
@@ -3149,39 +3503,45 @@
         <v>0.1</v>
       </c>
       <c r="E59" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="G59" s="1">
         <v>3.3</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="3">
+        <v>6</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="3">
         <v>1.1100000000000001E-3</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <f t="shared" si="0"/>
         <v>1.1100000000000001E-4</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <f t="shared" si="1"/>
         <v>1.6650000000000001E-4</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>800</v>
       </c>
@@ -3195,39 +3555,45 @@
         <v>0.1</v>
       </c>
       <c r="E60" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G60" s="1">
         <v>3.5</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="3">
+        <v>6</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K60" s="3">
         <v>6.5400000000000007E-4</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2.4300000000000002E-4</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <f t="shared" si="0"/>
         <v>6.5400000000000004E-5</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <f t="shared" si="1"/>
         <v>9.8100000000000013E-5</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>800</v>
       </c>
@@ -3241,39 +3607,45 @@
         <v>0.1</v>
       </c>
       <c r="E61" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.1</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="3">
+        <v>6</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="3">
         <v>2.4000000000000004E-2</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5.5000000000000005E-3</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <f t="shared" si="0"/>
         <v>2.4000000000000007E-3</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <f t="shared" si="1"/>
         <v>3.6000000000000003E-3</v>
       </c>
-      <c r="M61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>800</v>
       </c>
@@ -3287,39 +3659,45 @@
         <v>0.1</v>
       </c>
       <c r="E62" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G62" s="1">
         <v>0.3</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="3">
+        <v>6</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="3">
         <v>2.06E-2</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <f t="shared" si="0"/>
         <v>2.0600000000000002E-3</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <f t="shared" si="1"/>
         <v>3.0899999999999999E-3</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>800</v>
       </c>
@@ -3333,39 +3711,45 @@
         <v>0.1</v>
       </c>
       <c r="E63" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G63" s="1">
         <v>0.5</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="3">
+        <v>6</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K63" s="3">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="J63" s="3">
+      <c r="L63" s="3">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="K63" s="3">
+      <c r="M63" s="3">
         <f t="shared" si="0"/>
         <v>1.8800000000000002E-3</v>
       </c>
-      <c r="L63" s="3">
+      <c r="N63" s="3">
         <f t="shared" si="1"/>
         <v>2.82E-3</v>
       </c>
-      <c r="M63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N63" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>800</v>
       </c>
@@ -3379,39 +3763,45 @@
         <v>0.1</v>
       </c>
       <c r="E64" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G64" s="1">
         <v>0.7</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" s="3">
+        <v>6</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" s="3">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="J64" s="3">
+      <c r="L64" s="3">
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="K64" s="3">
+      <c r="M64" s="3">
         <f t="shared" si="0"/>
         <v>1.7100000000000001E-3</v>
       </c>
-      <c r="L64" s="3">
+      <c r="N64" s="3">
         <f t="shared" si="1"/>
         <v>2.565E-3</v>
       </c>
-      <c r="M64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>800</v>
       </c>
@@ -3425,39 +3815,45 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
         <v>0.9</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I65" s="3">
+        <v>6</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K65" s="3">
         <v>9.7300000000000008E-3</v>
       </c>
-      <c r="J65" s="3">
+      <c r="L65" s="3">
         <v>1.16E-3</v>
       </c>
-      <c r="K65" s="3">
+      <c r="M65" s="3">
         <f t="shared" si="0"/>
         <v>9.7300000000000012E-4</v>
       </c>
-      <c r="L65" s="3">
+      <c r="N65" s="3">
         <f t="shared" si="1"/>
         <v>1.4595000000000001E-3</v>
       </c>
-      <c r="M65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>800</v>
       </c>
@@ -3471,39 +3867,45 @@
         <v>0.1</v>
       </c>
       <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G66" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="3">
+        <v>6</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K66" s="3">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <f t="shared" si="0"/>
         <v>1.07E-3</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <f t="shared" si="1"/>
         <v>1.6049999999999999E-3</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>800</v>
       </c>
@@ -3517,39 +3919,45 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G67" s="1">
         <v>1.3</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" s="3">
+        <v>6</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" s="3">
         <v>7.9100000000000004E-3</v>
       </c>
-      <c r="J67" s="3">
+      <c r="L67" s="3">
         <v>8.8000000000000003E-4</v>
       </c>
-      <c r="K67" s="3">
-        <f t="shared" ref="K67:K75" si="2">0.1*I67</f>
+      <c r="M67" s="3">
+        <f t="shared" ref="M67:M75" si="2">0.1*K67</f>
         <v>7.9100000000000004E-4</v>
       </c>
-      <c r="L67" s="3">
-        <f t="shared" ref="L67:L75" si="3">0.15*I67</f>
+      <c r="N67" s="3">
+        <f t="shared" ref="N67:N75" si="3">0.15*K67</f>
         <v>1.1865000000000001E-3</v>
       </c>
-      <c r="M67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>800</v>
       </c>
@@ -3563,39 +3971,45 @@
         <v>0.1</v>
       </c>
       <c r="E68" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G68" s="1">
         <v>1.5</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" s="3">
+        <v>6</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K68" s="3">
         <v>6.0500000000000007E-3</v>
       </c>
-      <c r="J68" s="3">
+      <c r="L68" s="3">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="K68" s="3">
+      <c r="M68" s="3">
         <f t="shared" si="2"/>
         <v>6.0500000000000007E-4</v>
       </c>
-      <c r="L68" s="3">
+      <c r="N68" s="3">
         <f t="shared" si="3"/>
         <v>9.075000000000001E-4</v>
       </c>
-      <c r="M68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>800</v>
       </c>
@@ -3609,39 +4023,45 @@
         <v>0.1</v>
       </c>
       <c r="E69" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G69" s="1">
         <v>1.7</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" s="3">
+        <v>6</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" s="3">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="J69" s="3">
+      <c r="L69" s="3">
         <v>5.1000000000000004E-4</v>
       </c>
-      <c r="K69" s="3">
+      <c r="M69" s="3">
         <f t="shared" si="2"/>
         <v>3.5000000000000005E-4</v>
       </c>
-      <c r="L69" s="3">
+      <c r="N69" s="3">
         <f t="shared" si="3"/>
         <v>5.2499999999999997E-4</v>
       </c>
-      <c r="M69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N69" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>800</v>
       </c>
@@ -3655,39 +4075,45 @@
         <v>0.1</v>
       </c>
       <c r="E70" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2</v>
+      </c>
+      <c r="G70" s="1">
         <v>1.9</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I70" s="3">
+        <v>6</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K70" s="3">
         <v>1.9400000000000001E-3</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <f t="shared" si="2"/>
         <v>1.9400000000000003E-4</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <f t="shared" si="3"/>
         <v>2.9100000000000003E-4</v>
       </c>
-      <c r="M70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N70" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>800</v>
       </c>
@@ -3701,39 +4127,45 @@
         <v>0.1</v>
       </c>
       <c r="E71" s="1">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G71" s="1">
         <v>2.1</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" s="3">
+        <v>6</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K71" s="3">
         <v>2E-3</v>
       </c>
-      <c r="J71" s="3">
+      <c r="L71" s="3">
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="K71" s="3">
+      <c r="M71" s="3">
         <f t="shared" si="2"/>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="L71" s="3">
+      <c r="N71" s="3">
         <f t="shared" si="3"/>
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="M71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N71" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P71" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>800</v>
       </c>
@@ -3747,39 +4179,45 @@
         <v>0.1</v>
       </c>
       <c r="E72" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="G72" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="3">
+        <v>6</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="3">
         <v>1.3600000000000001E-3</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2.9E-4</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <f t="shared" si="2"/>
         <v>1.3600000000000003E-4</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <f t="shared" si="3"/>
         <v>2.04E-4</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>800</v>
       </c>
@@ -3793,39 +4231,45 @@
         <v>0.1</v>
       </c>
       <c r="E73" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G73" s="1">
         <v>2.5</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I73" s="3">
+        <v>6</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K73" s="3">
         <v>1.3600000000000001E-3</v>
       </c>
-      <c r="J73" s="3">
+      <c r="L73" s="3">
         <v>2.9E-4</v>
       </c>
-      <c r="K73" s="3">
+      <c r="M73" s="3">
         <f t="shared" si="2"/>
         <v>1.3600000000000003E-4</v>
       </c>
-      <c r="L73" s="3">
+      <c r="N73" s="3">
         <f t="shared" si="3"/>
         <v>2.04E-4</v>
       </c>
-      <c r="M73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N73" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>800</v>
       </c>
@@ -3839,39 +4283,45 @@
         <v>0.1</v>
       </c>
       <c r="E74" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G74" s="1">
         <v>2.7</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" s="3">
+        <v>6</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K74" s="3">
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="J74" s="3">
+      <c r="L74" s="3">
         <v>1.9099999999999998E-4</v>
       </c>
-      <c r="K74" s="3">
+      <c r="M74" s="3">
         <f t="shared" si="2"/>
         <v>6.0000000000000008E-5</v>
       </c>
-      <c r="L74" s="3">
+      <c r="N74" s="3">
         <f t="shared" si="3"/>
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="M74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="O74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>800</v>
       </c>
@@ -3885,35 +4335,41 @@
         <v>0.1</v>
       </c>
       <c r="E75" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="F75" s="1">
+        <v>3</v>
+      </c>
+      <c r="G75" s="1">
         <v>2.9</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I75" s="3">
+        <v>6</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K75" s="3">
         <v>4.35E-4</v>
       </c>
-      <c r="J75" s="3">
+      <c r="L75" s="3">
         <v>1.6600000000000002E-4</v>
       </c>
-      <c r="K75" s="3">
+      <c r="M75" s="3">
         <f t="shared" si="2"/>
         <v>4.35E-5</v>
       </c>
-      <c r="L75" s="3">
+      <c r="N75" s="3">
         <f t="shared" si="3"/>
         <v>6.525E-5</v>
       </c>
-      <c r="M75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N75" s="3" t="s">
+      <c r="O75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P75" s="3" t="s">
         <v>14</v>
       </c>
     </row>

--- a/proton_qT/expdata/10605.xlsx
+++ b/proton_qT/expdata/10605.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A885D37-D6FE-D546-8654-018B1C7DB7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E10540-2A98-4B42-B962-2F7A416B0545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="3700" windowWidth="28040" windowHeight="16460" xr2:uid="{487361BB-D140-9C49-9E52-83089BC7FE17}"/>
+    <workbookView xWindow="900" yWindow="2540" windowWidth="28040" windowHeight="16460" xr2:uid="{487361BB-D140-9C49-9E52-83089BC7FE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>xF</t>
   </si>
   <si>
-    <t>syst_c</t>
-  </si>
-  <si>
     <t>Qmin</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>pTmax</t>
+  </si>
+  <si>
+    <t>sys_u</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:P75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,19 +480,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -513,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>
